--- a/assets/public/Chapter_4_ComprehensiveProblem/documents/resources/Assessment_Questions/5.6_A_Student_Q_Sheet.xlsx
+++ b/assets/public/Chapter_4_ComprehensiveProblem/documents/resources/Assessment_Questions/5.6_A_Student_Q_Sheet.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\SakshiV\Dropbox\Accounting Courseware\Chapter_4_ComprehensiveProblem\documents\resources\Assessment_Questions\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8480E50D-8AA5-4B0D-83BC-B239D8028BD5}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6737C099-4383-4030-940C-1A32CD6F4899}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="11640" xr2:uid="{81281575-E507-449C-A7BA-DF4DE79AACCA}"/>
   </bookViews>
@@ -90,7 +90,7 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="2">
     <numFmt numFmtId="164" formatCode="m/d"/>
-    <numFmt numFmtId="169" formatCode="&quot;$&quot;#,##0"/>
+    <numFmt numFmtId="165" formatCode="&quot;$&quot;#,##0"/>
   </numFmts>
   <fonts count="5" x14ac:knownFonts="1">
     <font>
@@ -125,7 +125,7 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -142,6 +142,12 @@
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFFFF"/>
         <bgColor rgb="FFFFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFEF1E6"/>
+        <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
@@ -230,7 +236,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -268,18 +274,19 @@
     <xf numFmtId="37" fontId="2" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="169" fontId="2" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="2" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="169" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="169" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="169" fontId="2" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="2" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" shrinkToFit="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -288,6 +295,7 @@
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <mruColors>
+      <color rgb="FFFEF1E6"/>
       <color rgb="FFD9D9D9"/>
     </mruColors>
   </colors>
@@ -599,7 +607,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DFC8DC52-957D-4FFB-BF6E-F6CAD4A7ADB5}">
-  <dimension ref="A1:D52"/>
+  <dimension ref="A1:D54"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
       <selection activeCell="A2" sqref="A2"/>
@@ -1132,6 +1140,18 @@
       <c r="C52" s="16"/>
       <c r="D52" s="11"/>
     </row>
+    <row r="53" spans="1:4" ht="9" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A53" s="17"/>
+      <c r="B53" s="17"/>
+      <c r="C53" s="17"/>
+      <c r="D53" s="17"/>
+    </row>
+    <row r="54" spans="1:4" ht="9" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A54" s="17"/>
+      <c r="B54" s="17"/>
+      <c r="C54" s="17"/>
+      <c r="D54" s="17"/>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/assets/public/Chapter_4_ComprehensiveProblem/documents/resources/Assessment_Questions/5.6_A_Student_Q_Sheet.xlsx
+++ b/assets/public/Chapter_4_ComprehensiveProblem/documents/resources/Assessment_Questions/5.6_A_Student_Q_Sheet.xlsx
@@ -8,14 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\SakshiV\Dropbox\Accounting Courseware\Chapter_4_ComprehensiveProblem\documents\resources\Assessment_Questions\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6737C099-4383-4030-940C-1A32CD6F4899}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{175DAD9C-75AD-416D-86C3-254066F988A0}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="11640" xr2:uid="{81281575-E507-449C-A7BA-DF4DE79AACCA}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="191029" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="18">
   <si>
     <t xml:space="preserve"> </t>
   </si>
@@ -82,6 +82,9 @@
   </si>
   <si>
     <t>Account</t>
+  </si>
+  <si>
+    <t>Credit</t>
   </si>
 </sst>
 </file>
@@ -92,7 +95,7 @@
     <numFmt numFmtId="164" formatCode="m/d"/>
     <numFmt numFmtId="165" formatCode="&quot;$&quot;#,##0"/>
   </numFmts>
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -101,26 +104,22 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="10"/>
-      <color theme="1"/>
-      <name val="Arial"/>
+      <sz val="12"/>
+      <name val="Calibri"/>
       <family val="2"/>
+      <scheme val="minor"/>
     </font>
     <font>
-      <sz val="10"/>
+      <sz val="12"/>
       <color rgb="FF000000"/>
-      <name val="Arial"/>
+      <name val="Calibri"/>
       <family val="2"/>
+      <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="10"/>
+      <sz val="11"/>
       <color theme="1"/>
-      <name val="Arial"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="10"/>
       <name val="Arial"/>
       <family val="2"/>
     </font>
@@ -151,7 +150,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="6">
+  <borders count="5">
     <border>
       <left/>
       <right/>
@@ -175,16 +174,29 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FFD9D9D9"/>
+      <left style="medium">
+        <color rgb="FFE1A16C"/>
       </left>
       <right style="thin">
-        <color rgb="FFD9D9D9"/>
+        <color rgb="FFE1A16C"/>
       </right>
-      <top/>
-      <bottom style="thin">
-        <color rgb="FFD9D9D9"/>
-      </bottom>
+      <top style="medium">
+        <color rgb="FFE1A16C"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFE1A16C"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFE1A16C"/>
+      </right>
+      <top style="medium">
+        <color rgb="FFE1A16C"/>
+      </top>
+      <bottom/>
       <diagonal/>
     </border>
     <border>
@@ -197,61 +209,27 @@
       <top style="medium">
         <color rgb="FFE1A16C"/>
       </top>
-      <bottom style="medium">
-        <color rgb="FFE1A16C"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFE1A16C"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFE1A16C"/>
-      </right>
-      <top style="medium">
-        <color rgb="FFE1A16C"/>
-      </top>
-      <bottom style="medium">
-        <color rgb="FFE1A16C"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color rgb="FFE1A16C"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFE1A16C"/>
-      </right>
-      <top style="medium">
-        <color rgb="FFE1A16C"/>
-      </top>
-      <bottom style="medium">
-        <color rgb="FFE1A16C"/>
-      </bottom>
+      <bottom/>
       <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="16" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="16" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -259,34 +237,16 @@
     <xf numFmtId="0" fontId="3" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="37" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="37" fontId="2" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="165" fontId="2" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
     <xf numFmtId="165" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" shrinkToFit="1"/>
     </xf>
     <xf numFmtId="165" fontId="2" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="165" fontId="2" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="165" fontId="2" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -295,8 +255,8 @@
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <mruColors>
+      <color rgb="FFD9D9D9"/>
       <color rgb="FFFEF1E6"/>
-      <color rgb="FFD9D9D9"/>
     </mruColors>
   </colors>
   <extLst>
@@ -609,7 +569,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DFC8DC52-957D-4FFB-BF6E-F6CAD4A7ADB5}">
   <dimension ref="A1:D54"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
@@ -620,539 +580,540 @@
     <col min="3" max="4" width="14.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="8" t="s">
+    <row r="1" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="B1" s="7" t="s">
+      <c r="B1" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="C1" s="7" t="s">
+      <c r="C1" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="D1" s="6" t="s">
-        <v>14</v>
+      <c r="D1" s="7" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="2" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="4">
-        <v>43617</v>
-      </c>
-      <c r="B2" s="5" t="s">
+      <c r="A2" s="2">
+        <v>42887</v>
+      </c>
+      <c r="B2" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="C2" s="13">
+      <c r="C2" s="8">
         <v>10000</v>
       </c>
-      <c r="D2" s="4">
-        <v>43617</v>
-      </c>
+      <c r="D2" s="9"/>
     </row>
     <row r="3" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="1"/>
-      <c r="B3" s="2" t="s">
+      <c r="A3" s="2"/>
+      <c r="B3" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="C3" s="14"/>
-      <c r="D3" s="1"/>
+      <c r="C3" s="9"/>
+      <c r="D3" s="8">
+        <v>10000</v>
+      </c>
     </row>
     <row r="4" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="3">
-        <v>43617</v>
-      </c>
-      <c r="B4" s="2" t="s">
+      <c r="A4" s="2">
+        <v>42887</v>
+      </c>
+      <c r="B4" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="C4" s="14">
+      <c r="C4" s="8">
         <v>50</v>
       </c>
-      <c r="D4" s="3">
-        <v>43617</v>
-      </c>
+      <c r="D4" s="9"/>
     </row>
     <row r="5" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="1"/>
-      <c r="B5" s="2" t="s">
+      <c r="A5" s="2"/>
+      <c r="B5" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C5" s="14"/>
-      <c r="D5" s="1"/>
+      <c r="C5" s="9"/>
+      <c r="D5" s="8">
+        <v>50</v>
+      </c>
     </row>
     <row r="6" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="3">
-        <v>43618</v>
-      </c>
-      <c r="B6" s="2" t="s">
+      <c r="A6" s="2">
+        <v>42888</v>
+      </c>
+      <c r="B6" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="C6" s="14">
+      <c r="C6" s="8">
         <v>150</v>
       </c>
-      <c r="D6" s="3">
-        <v>43618</v>
-      </c>
+      <c r="D6" s="9"/>
     </row>
     <row r="7" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="1"/>
-      <c r="B7" s="2" t="s">
+      <c r="A7" s="2"/>
+      <c r="B7" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="C7" s="14"/>
-      <c r="D7" s="1"/>
+      <c r="C7" s="9"/>
+      <c r="D7" s="8">
+        <v>150</v>
+      </c>
     </row>
     <row r="8" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="3">
-        <v>43621</v>
-      </c>
-      <c r="B8" s="2" t="s">
+      <c r="A8" s="2">
+        <v>42891</v>
+      </c>
+      <c r="B8" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="C8" s="14">
+      <c r="C8" s="8">
         <v>200</v>
       </c>
-      <c r="D8" s="3">
-        <v>43621</v>
-      </c>
+      <c r="D8" s="9"/>
     </row>
     <row r="9" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="1"/>
-      <c r="B9" s="2" t="s">
+      <c r="A9" s="2"/>
+      <c r="B9" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="C9" s="14"/>
-      <c r="D9" s="1"/>
+      <c r="C9" s="9"/>
+      <c r="D9" s="8">
+        <v>200</v>
+      </c>
     </row>
     <row r="10" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="3">
-        <v>43622</v>
-      </c>
-      <c r="B10" s="2" t="s">
+      <c r="A10" s="2">
+        <v>42892</v>
+      </c>
+      <c r="B10" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="C10" s="14">
+      <c r="C10" s="8">
         <v>250</v>
       </c>
-      <c r="D10" s="3">
-        <v>43622</v>
-      </c>
+      <c r="D10" s="9"/>
     </row>
     <row r="11" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="1"/>
-      <c r="B11" s="2" t="s">
+      <c r="A11" s="2"/>
+      <c r="B11" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="C11" s="14"/>
-      <c r="D11" s="1"/>
+      <c r="C11" s="9"/>
+      <c r="D11" s="8">
+        <v>250</v>
+      </c>
     </row>
     <row r="12" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="3">
-        <v>43624</v>
-      </c>
-      <c r="B12" s="2" t="s">
+      <c r="A12" s="2">
+        <v>42894</v>
+      </c>
+      <c r="B12" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="C12" s="14">
+      <c r="C12" s="8">
         <v>150</v>
       </c>
-      <c r="D12" s="3">
-        <v>43624</v>
-      </c>
+      <c r="D12" s="9"/>
     </row>
     <row r="13" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="1"/>
-      <c r="B13" s="2" t="s">
+      <c r="A13" s="2"/>
+      <c r="B13" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C13" s="14"/>
-      <c r="D13" s="1"/>
+      <c r="C13" s="9"/>
+      <c r="D13" s="8">
+        <v>150</v>
+      </c>
     </row>
     <row r="14" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="3">
-        <v>43625</v>
-      </c>
-      <c r="B14" s="2" t="s">
+      <c r="A14" s="2">
+        <v>42895</v>
+      </c>
+      <c r="B14" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="C14" s="14">
+      <c r="C14" s="8">
         <v>450</v>
       </c>
-      <c r="D14" s="3">
-        <v>43625</v>
-      </c>
+      <c r="D14" s="9"/>
     </row>
     <row r="15" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="1"/>
-      <c r="B15" s="2" t="s">
+      <c r="A15" s="2"/>
+      <c r="B15" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="C15" s="14"/>
-      <c r="D15" s="1"/>
+      <c r="C15" s="9"/>
+      <c r="D15" s="8">
+        <v>450</v>
+      </c>
     </row>
     <row r="16" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="3">
-        <v>43626</v>
-      </c>
-      <c r="B16" s="2" t="s">
+      <c r="A16" s="2">
+        <v>42896</v>
+      </c>
+      <c r="B16" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="C16" s="14">
+      <c r="C16" s="8">
         <v>40</v>
       </c>
-      <c r="D16" s="3">
-        <v>43626</v>
-      </c>
+      <c r="D16" s="9"/>
     </row>
     <row r="17" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="1"/>
-      <c r="B17" s="2" t="s">
+      <c r="A17" s="2"/>
+      <c r="B17" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="C17" s="14"/>
-      <c r="D17" s="1"/>
+      <c r="C17" s="9"/>
+      <c r="D17" s="8">
+        <v>40</v>
+      </c>
     </row>
     <row r="18" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="3">
-        <v>43629</v>
-      </c>
-      <c r="B18" s="2" t="s">
+      <c r="A18" s="2">
+        <v>42899</v>
+      </c>
+      <c r="B18" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="C18" s="14">
+      <c r="C18" s="8">
         <v>600</v>
       </c>
-      <c r="D18" s="3">
-        <v>43629</v>
-      </c>
+      <c r="D18" s="9"/>
     </row>
     <row r="19" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="1"/>
-      <c r="B19" s="2" t="s">
+      <c r="A19" s="2"/>
+      <c r="B19" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C19" s="14"/>
-      <c r="D19" s="1"/>
+      <c r="C19" s="9"/>
+      <c r="D19" s="8">
+        <v>600</v>
+      </c>
     </row>
     <row r="20" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="3">
-        <v>43632</v>
-      </c>
-      <c r="B20" s="2" t="s">
+      <c r="A20" s="2">
+        <v>42902</v>
+      </c>
+      <c r="B20" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="C20" s="14">
+      <c r="C20" s="8">
         <v>500</v>
       </c>
-      <c r="D20" s="3">
-        <v>43632</v>
-      </c>
+      <c r="D20" s="9"/>
     </row>
     <row r="21" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="1"/>
-      <c r="B21" s="2" t="s">
+      <c r="A21" s="2"/>
+      <c r="B21" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="C21" s="14"/>
-      <c r="D21" s="1"/>
+      <c r="C21" s="9"/>
+      <c r="D21" s="8">
+        <v>500</v>
+      </c>
     </row>
     <row r="22" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="3">
-        <v>43633</v>
-      </c>
-      <c r="B22" s="2" t="s">
+      <c r="A22" s="4">
+        <v>42903</v>
+      </c>
+      <c r="B22" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="C22" s="14">
+      <c r="C22" s="8">
         <v>30</v>
       </c>
-      <c r="D22" s="3">
-        <v>43633</v>
-      </c>
+      <c r="D22" s="9"/>
     </row>
     <row r="23" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="1"/>
-      <c r="B23" s="2" t="s">
+      <c r="A23" s="2"/>
+      <c r="B23" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="C23" s="14"/>
-      <c r="D23" s="1"/>
+      <c r="C23" s="9"/>
+      <c r="D23" s="8">
+        <v>30</v>
+      </c>
     </row>
     <row r="24" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="3">
-        <v>43636</v>
-      </c>
-      <c r="B24" s="2" t="s">
+      <c r="A24" s="2">
+        <v>42906</v>
+      </c>
+      <c r="B24" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="C24" s="14">
+      <c r="C24" s="8">
         <v>250</v>
       </c>
-      <c r="D24" s="3">
-        <v>43636</v>
-      </c>
+      <c r="D24" s="9"/>
     </row>
     <row r="25" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="1"/>
-      <c r="B25" s="2" t="s">
+      <c r="A25" s="2"/>
+      <c r="B25" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="C25" s="14"/>
-      <c r="D25" s="1"/>
+      <c r="C25" s="9"/>
+      <c r="D25" s="8">
+        <v>250</v>
+      </c>
     </row>
     <row r="26" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="3">
-        <v>43637</v>
-      </c>
-      <c r="B26" s="2" t="s">
+      <c r="A26" s="2">
+        <v>42907</v>
+      </c>
+      <c r="B26" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="C26" s="14">
+      <c r="C26" s="8">
         <v>40</v>
       </c>
-      <c r="D26" s="3">
-        <v>43637</v>
-      </c>
+      <c r="D26" s="9"/>
     </row>
     <row r="27" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="1"/>
-      <c r="B27" s="2" t="s">
+      <c r="A27" s="2"/>
+      <c r="B27" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C27" s="14"/>
-      <c r="D27" s="1"/>
+      <c r="C27" s="9"/>
+      <c r="D27" s="8">
+        <v>40</v>
+      </c>
     </row>
     <row r="28" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="3">
-        <v>43640</v>
-      </c>
-      <c r="B28" s="2" t="s">
+      <c r="A28" s="2">
+        <v>42910</v>
+      </c>
+      <c r="B28" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="C28" s="14">
+      <c r="C28" s="8">
         <v>750</v>
       </c>
-      <c r="D28" s="3">
-        <v>43640</v>
-      </c>
+      <c r="D28" s="9"/>
     </row>
     <row r="29" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="1"/>
-      <c r="B29" s="2" t="s">
+      <c r="A29" s="2"/>
+      <c r="B29" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="C29" s="14"/>
-      <c r="D29" s="1"/>
+      <c r="C29" s="9"/>
+      <c r="D29" s="8">
+        <v>750</v>
+      </c>
     </row>
     <row r="30" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="3">
-        <v>43641</v>
-      </c>
-      <c r="B30" s="2" t="s">
+      <c r="A30" s="2">
+        <v>42911</v>
+      </c>
+      <c r="B30" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="C30" s="14">
+      <c r="C30" s="8">
         <v>175</v>
       </c>
-      <c r="D30" s="3">
-        <v>43641</v>
-      </c>
+      <c r="D30" s="9"/>
     </row>
     <row r="31" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="1"/>
-      <c r="B31" s="2" t="s">
+      <c r="A31" s="2"/>
+      <c r="B31" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C31" s="14"/>
-      <c r="D31" s="1"/>
+      <c r="C31" s="9"/>
+      <c r="D31" s="8">
+        <v>175</v>
+      </c>
     </row>
     <row r="32" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="3">
-        <v>43643</v>
-      </c>
-      <c r="B32" s="2" t="s">
+      <c r="A32" s="2">
+        <v>42913</v>
+      </c>
+      <c r="B32" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="C32" s="14">
+      <c r="C32" s="8">
         <v>600</v>
       </c>
-      <c r="D32" s="3">
-        <v>43643</v>
-      </c>
+      <c r="D32" s="9"/>
     </row>
     <row r="33" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="1"/>
-      <c r="B33" s="2" t="s">
+      <c r="A33" s="2"/>
+      <c r="B33" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C33" s="14"/>
-      <c r="D33" s="1"/>
+      <c r="C33" s="9"/>
+      <c r="D33" s="8">
+        <v>600</v>
+      </c>
     </row>
     <row r="34" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="3">
-        <v>43645</v>
-      </c>
-      <c r="B34" s="2" t="s">
+      <c r="A34" s="2">
+        <v>42915</v>
+      </c>
+      <c r="B34" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="C34" s="14">
+      <c r="C34" s="8">
         <v>1600</v>
       </c>
-      <c r="D34" s="3">
-        <v>43645</v>
-      </c>
+      <c r="D34" s="9"/>
     </row>
     <row r="35" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="1"/>
-      <c r="B35" s="2" t="s">
+      <c r="A35" s="2"/>
+      <c r="B35" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="C35" s="14"/>
-      <c r="D35" s="1"/>
+      <c r="C35" s="9"/>
+      <c r="D35" s="8">
+        <v>1600</v>
+      </c>
     </row>
     <row r="36" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="3">
-        <v>43646</v>
-      </c>
-      <c r="B36" s="2" t="s">
+      <c r="A36" s="2">
+        <v>42916</v>
+      </c>
+      <c r="B36" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="C36" s="14">
+      <c r="C36" s="8">
         <v>700</v>
       </c>
-      <c r="D36" s="3">
-        <v>43646</v>
-      </c>
+      <c r="D36" s="9"/>
     </row>
     <row r="37" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A37" s="1"/>
-      <c r="B37" s="2" t="s">
+      <c r="A37" s="2"/>
+      <c r="B37" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C37" s="14"/>
-      <c r="D37" s="1"/>
+      <c r="C37" s="9"/>
+      <c r="D37" s="8">
+        <v>700</v>
+      </c>
     </row>
     <row r="38" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A38" s="1"/>
-      <c r="B38" s="2"/>
-      <c r="C38" s="14"/>
-      <c r="D38" s="1"/>
+      <c r="A38" s="2"/>
+      <c r="B38" s="3"/>
+      <c r="C38" s="10"/>
+      <c r="D38" s="11"/>
     </row>
     <row r="39" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A39" s="3">
-        <v>43646</v>
-      </c>
-      <c r="B39" s="10"/>
-      <c r="C39" s="15"/>
-      <c r="D39" s="12"/>
+      <c r="A39" s="2">
+        <v>42916</v>
+      </c>
+      <c r="B39" s="3"/>
+      <c r="C39" s="8"/>
+      <c r="D39" s="9"/>
     </row>
     <row r="40" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A40" s="9" t="s">
+      <c r="A40" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B40" s="10"/>
-      <c r="C40" s="15"/>
-      <c r="D40" s="12"/>
+      <c r="B40" s="3"/>
+      <c r="C40" s="8"/>
+      <c r="D40" s="9"/>
     </row>
     <row r="41" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A41" s="9" t="s">
+      <c r="A41" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B41" s="10"/>
-      <c r="C41" s="15"/>
-      <c r="D41" s="12"/>
+      <c r="B41" s="3"/>
+      <c r="C41" s="8"/>
+      <c r="D41" s="9"/>
     </row>
     <row r="42" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A42" s="9" t="s">
+      <c r="A42" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B42" s="10"/>
-      <c r="C42" s="15"/>
-      <c r="D42" s="12"/>
+      <c r="B42" s="3"/>
+      <c r="C42" s="8"/>
+      <c r="D42" s="9"/>
     </row>
     <row r="43" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A43" s="9" t="s">
+      <c r="A43" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B43" s="10"/>
-      <c r="C43" s="15"/>
-      <c r="D43" s="12"/>
+      <c r="B43" s="3"/>
+      <c r="C43" s="8"/>
+      <c r="D43" s="9"/>
     </row>
     <row r="44" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A44" s="9" t="s">
+      <c r="A44" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B44" s="10"/>
-      <c r="C44" s="15"/>
-      <c r="D44" s="12"/>
+      <c r="B44" s="3"/>
+      <c r="C44" s="8"/>
+      <c r="D44" s="9"/>
     </row>
     <row r="45" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A45" s="9" t="s">
+      <c r="A45" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B45" s="10"/>
-      <c r="C45" s="15"/>
-      <c r="D45" s="12"/>
+      <c r="B45" s="3"/>
+      <c r="C45" s="8"/>
+      <c r="D45" s="9"/>
     </row>
     <row r="46" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A46" s="9" t="s">
+      <c r="A46" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B46" s="10"/>
-      <c r="C46" s="15"/>
-      <c r="D46" s="12"/>
+      <c r="B46" s="3"/>
+      <c r="C46" s="8"/>
+      <c r="D46" s="9"/>
     </row>
     <row r="47" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A47" s="9" t="s">
+      <c r="A47" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B47" s="10"/>
-      <c r="C47" s="16"/>
-      <c r="D47" s="12"/>
+      <c r="B47" s="3"/>
+      <c r="C47" s="9"/>
+      <c r="D47" s="9"/>
     </row>
     <row r="48" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A48" s="9"/>
-      <c r="B48" s="10"/>
-      <c r="C48" s="15"/>
-      <c r="D48" s="12"/>
+      <c r="A48" s="2"/>
+      <c r="B48" s="3"/>
+      <c r="C48" s="8"/>
+      <c r="D48" s="9"/>
     </row>
     <row r="49" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A49" s="9"/>
-      <c r="B49" s="10"/>
-      <c r="C49" s="16"/>
-      <c r="D49" s="12"/>
+      <c r="A49" s="2"/>
+      <c r="B49" s="3"/>
+      <c r="C49" s="9"/>
+      <c r="D49" s="9"/>
     </row>
     <row r="50" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A50" s="9" t="s">
+      <c r="A50" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B50" s="10"/>
-      <c r="C50" s="15"/>
-      <c r="D50" s="12"/>
+      <c r="B50" s="3"/>
+      <c r="C50" s="8"/>
+      <c r="D50" s="9"/>
     </row>
     <row r="51" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A51" s="9"/>
-      <c r="B51" s="10"/>
-      <c r="C51" s="15"/>
-      <c r="D51" s="12"/>
+      <c r="A51" s="2"/>
+      <c r="B51" s="3"/>
+      <c r="C51" s="8"/>
+      <c r="D51" s="9"/>
     </row>
     <row r="52" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A52" s="9"/>
-      <c r="B52" s="10"/>
-      <c r="C52" s="16"/>
-      <c r="D52" s="11"/>
+      <c r="A52" s="2"/>
+      <c r="B52" s="3"/>
+      <c r="C52" s="9"/>
+      <c r="D52" s="8"/>
     </row>
     <row r="53" spans="1:4" ht="9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A53" s="17"/>
-      <c r="B53" s="17"/>
-      <c r="C53" s="17"/>
-      <c r="D53" s="17"/>
+      <c r="A53" s="1"/>
+      <c r="B53" s="1"/>
+      <c r="C53" s="1"/>
+      <c r="D53" s="1"/>
     </row>
     <row r="54" spans="1:4" ht="9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A54" s="17"/>
-      <c r="B54" s="17"/>
-      <c r="C54" s="17"/>
-      <c r="D54" s="17"/>
+      <c r="A54" s="1"/>
+      <c r="B54" s="1"/>
+      <c r="C54" s="1"/>
+      <c r="D54" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/assets/public/Chapter_4_ComprehensiveProblem/documents/resources/Assessment_Questions/5.6_A_Student_Q_Sheet.xlsx
+++ b/assets/public/Chapter_4_ComprehensiveProblem/documents/resources/Assessment_Questions/5.6_A_Student_Q_Sheet.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\SakshiV\Dropbox\Accounting Courseware\Chapter_4_ComprehensiveProblem\documents\resources\Assessment_Questions\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{175DAD9C-75AD-416D-86C3-254066F988A0}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3853E9D9-A00E-4022-BEAA-22C48B2E09A8}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="11640" xr2:uid="{81281575-E507-449C-A7BA-DF4DE79AACCA}"/>
   </bookViews>
@@ -124,7 +124,7 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -141,12 +141,6 @@
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFFFF"/>
         <bgColor rgb="FFFFFFFF"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFEF1E6"/>
-        <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
@@ -216,9 +210,8 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="164" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" shrinkToFit="1"/>
     </xf>
@@ -238,15 +231,14 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="165" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" shrinkToFit="1"/>
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
     <xf numFmtId="165" fontId="2" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" shrinkToFit="1"/>
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
     <xf numFmtId="165" fontId="2" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="165" fontId="2" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -567,7 +559,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DFC8DC52-957D-4FFB-BF6E-F6CAD4A7ADB5}">
-  <dimension ref="A1:D54"/>
+  <dimension ref="A1:D52"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="A2" sqref="A2"/>
@@ -581,536 +573,524 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="5" t="s">
+      <c r="A1" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="B1" s="6" t="s">
+      <c r="B1" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="C1" s="6" t="s">
+      <c r="C1" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="D1" s="7" t="s">
+      <c r="D1" s="6" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="2" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="2">
+      <c r="A2" s="1">
         <v>42887</v>
       </c>
-      <c r="B2" s="3" t="s">
+      <c r="B2" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="C2" s="8">
+      <c r="C2" s="7">
         <v>10000</v>
       </c>
-      <c r="D2" s="9"/>
+      <c r="D2" s="8"/>
     </row>
     <row r="3" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="2"/>
-      <c r="B3" s="3" t="s">
+      <c r="A3" s="1"/>
+      <c r="B3" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="C3" s="9"/>
-      <c r="D3" s="8">
+      <c r="C3" s="8"/>
+      <c r="D3" s="7">
         <v>10000</v>
       </c>
     </row>
     <row r="4" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="2">
+      <c r="A4" s="1">
         <v>42887</v>
       </c>
-      <c r="B4" s="3" t="s">
+      <c r="B4" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="C4" s="8">
+      <c r="C4" s="7">
         <v>50</v>
       </c>
-      <c r="D4" s="9"/>
+      <c r="D4" s="8"/>
     </row>
     <row r="5" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="2"/>
-      <c r="B5" s="3" t="s">
+      <c r="A5" s="1"/>
+      <c r="B5" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C5" s="9"/>
-      <c r="D5" s="8">
+      <c r="C5" s="8"/>
+      <c r="D5" s="7">
         <v>50</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="2">
+      <c r="A6" s="1">
         <v>42888</v>
       </c>
-      <c r="B6" s="3" t="s">
+      <c r="B6" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="C6" s="8">
+      <c r="C6" s="7">
         <v>150</v>
       </c>
-      <c r="D6" s="9"/>
+      <c r="D6" s="8"/>
     </row>
     <row r="7" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="2"/>
-      <c r="B7" s="3" t="s">
+      <c r="A7" s="1"/>
+      <c r="B7" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="C7" s="9"/>
-      <c r="D7" s="8">
+      <c r="C7" s="8"/>
+      <c r="D7" s="7">
         <v>150</v>
       </c>
     </row>
     <row r="8" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="2">
+      <c r="A8" s="1">
         <v>42891</v>
       </c>
-      <c r="B8" s="3" t="s">
+      <c r="B8" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="C8" s="8">
+      <c r="C8" s="7">
         <v>200</v>
       </c>
-      <c r="D8" s="9"/>
+      <c r="D8" s="8"/>
     </row>
     <row r="9" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="2"/>
-      <c r="B9" s="3" t="s">
+      <c r="A9" s="1"/>
+      <c r="B9" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="C9" s="9"/>
-      <c r="D9" s="8">
+      <c r="C9" s="8"/>
+      <c r="D9" s="7">
         <v>200</v>
       </c>
     </row>
     <row r="10" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="2">
+      <c r="A10" s="1">
         <v>42892</v>
       </c>
-      <c r="B10" s="3" t="s">
+      <c r="B10" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="C10" s="8">
+      <c r="C10" s="7">
         <v>250</v>
       </c>
-      <c r="D10" s="9"/>
+      <c r="D10" s="8"/>
     </row>
     <row r="11" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="2"/>
-      <c r="B11" s="3" t="s">
+      <c r="A11" s="1"/>
+      <c r="B11" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="C11" s="9"/>
-      <c r="D11" s="8">
+      <c r="C11" s="8"/>
+      <c r="D11" s="7">
         <v>250</v>
       </c>
     </row>
     <row r="12" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="2">
+      <c r="A12" s="1">
         <v>42894</v>
       </c>
-      <c r="B12" s="3" t="s">
+      <c r="B12" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="C12" s="8">
+      <c r="C12" s="7">
         <v>150</v>
       </c>
-      <c r="D12" s="9"/>
+      <c r="D12" s="8"/>
     </row>
     <row r="13" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="2"/>
-      <c r="B13" s="3" t="s">
+      <c r="A13" s="1"/>
+      <c r="B13" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C13" s="9"/>
-      <c r="D13" s="8">
+      <c r="C13" s="8"/>
+      <c r="D13" s="7">
         <v>150</v>
       </c>
     </row>
     <row r="14" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="2">
+      <c r="A14" s="1">
         <v>42895</v>
       </c>
-      <c r="B14" s="3" t="s">
+      <c r="B14" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="C14" s="8">
+      <c r="C14" s="7">
         <v>450</v>
       </c>
-      <c r="D14" s="9"/>
+      <c r="D14" s="8"/>
     </row>
     <row r="15" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="2"/>
-      <c r="B15" s="3" t="s">
+      <c r="A15" s="1"/>
+      <c r="B15" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="C15" s="9"/>
-      <c r="D15" s="8">
+      <c r="C15" s="8"/>
+      <c r="D15" s="7">
         <v>450</v>
       </c>
     </row>
     <row r="16" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="2">
+      <c r="A16" s="1">
         <v>42896</v>
       </c>
-      <c r="B16" s="3" t="s">
+      <c r="B16" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="C16" s="8">
+      <c r="C16" s="7">
         <v>40</v>
       </c>
-      <c r="D16" s="9"/>
+      <c r="D16" s="8"/>
     </row>
     <row r="17" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="2"/>
-      <c r="B17" s="3" t="s">
+      <c r="A17" s="1"/>
+      <c r="B17" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="C17" s="9"/>
-      <c r="D17" s="8">
+      <c r="C17" s="8"/>
+      <c r="D17" s="7">
         <v>40</v>
       </c>
     </row>
     <row r="18" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="2">
+      <c r="A18" s="1">
         <v>42899</v>
       </c>
-      <c r="B18" s="3" t="s">
+      <c r="B18" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="C18" s="8">
+      <c r="C18" s="7">
         <v>600</v>
       </c>
-      <c r="D18" s="9"/>
+      <c r="D18" s="8"/>
     </row>
     <row r="19" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="2"/>
-      <c r="B19" s="3" t="s">
+      <c r="A19" s="1"/>
+      <c r="B19" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C19" s="9"/>
-      <c r="D19" s="8">
+      <c r="C19" s="8"/>
+      <c r="D19" s="7">
         <v>600</v>
       </c>
     </row>
     <row r="20" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="2">
+      <c r="A20" s="1">
         <v>42902</v>
       </c>
-      <c r="B20" s="3" t="s">
+      <c r="B20" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="C20" s="8">
+      <c r="C20" s="7">
         <v>500</v>
       </c>
-      <c r="D20" s="9"/>
+      <c r="D20" s="8"/>
     </row>
     <row r="21" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="2"/>
-      <c r="B21" s="3" t="s">
+      <c r="A21" s="1"/>
+      <c r="B21" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="C21" s="9"/>
-      <c r="D21" s="8">
+      <c r="C21" s="8"/>
+      <c r="D21" s="7">
         <v>500</v>
       </c>
     </row>
     <row r="22" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="4">
+      <c r="A22" s="3">
         <v>42903</v>
       </c>
-      <c r="B22" s="3" t="s">
+      <c r="B22" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="C22" s="8">
+      <c r="C22" s="7">
         <v>30</v>
       </c>
-      <c r="D22" s="9"/>
+      <c r="D22" s="8"/>
     </row>
     <row r="23" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="2"/>
-      <c r="B23" s="3" t="s">
+      <c r="A23" s="1"/>
+      <c r="B23" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="C23" s="9"/>
-      <c r="D23" s="8">
+      <c r="C23" s="8"/>
+      <c r="D23" s="7">
         <v>30</v>
       </c>
     </row>
     <row r="24" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="2">
+      <c r="A24" s="1">
         <v>42906</v>
       </c>
-      <c r="B24" s="3" t="s">
+      <c r="B24" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="C24" s="8">
+      <c r="C24" s="7">
         <v>250</v>
       </c>
-      <c r="D24" s="9"/>
+      <c r="D24" s="8"/>
     </row>
     <row r="25" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="2"/>
-      <c r="B25" s="3" t="s">
+      <c r="A25" s="1"/>
+      <c r="B25" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="C25" s="9"/>
-      <c r="D25" s="8">
+      <c r="C25" s="8"/>
+      <c r="D25" s="7">
         <v>250</v>
       </c>
     </row>
     <row r="26" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="2">
+      <c r="A26" s="1">
         <v>42907</v>
       </c>
-      <c r="B26" s="3" t="s">
+      <c r="B26" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="C26" s="8">
+      <c r="C26" s="7">
         <v>40</v>
       </c>
-      <c r="D26" s="9"/>
+      <c r="D26" s="8"/>
     </row>
     <row r="27" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="2"/>
-      <c r="B27" s="3" t="s">
+      <c r="A27" s="1"/>
+      <c r="B27" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C27" s="9"/>
-      <c r="D27" s="8">
+      <c r="C27" s="8"/>
+      <c r="D27" s="7">
         <v>40</v>
       </c>
     </row>
     <row r="28" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="2">
+      <c r="A28" s="1">
         <v>42910</v>
       </c>
-      <c r="B28" s="3" t="s">
+      <c r="B28" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="C28" s="8">
+      <c r="C28" s="7">
         <v>750</v>
       </c>
-      <c r="D28" s="9"/>
+      <c r="D28" s="8"/>
     </row>
     <row r="29" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="2"/>
-      <c r="B29" s="3" t="s">
+      <c r="A29" s="1"/>
+      <c r="B29" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="C29" s="9"/>
-      <c r="D29" s="8">
+      <c r="C29" s="8"/>
+      <c r="D29" s="7">
         <v>750</v>
       </c>
     </row>
     <row r="30" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="2">
+      <c r="A30" s="1">
         <v>42911</v>
       </c>
-      <c r="B30" s="3" t="s">
+      <c r="B30" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="C30" s="8">
+      <c r="C30" s="7">
         <v>175</v>
       </c>
-      <c r="D30" s="9"/>
+      <c r="D30" s="8"/>
     </row>
     <row r="31" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="2"/>
-      <c r="B31" s="3" t="s">
+      <c r="A31" s="1"/>
+      <c r="B31" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C31" s="9"/>
-      <c r="D31" s="8">
+      <c r="C31" s="8"/>
+      <c r="D31" s="7">
         <v>175</v>
       </c>
     </row>
     <row r="32" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="2">
+      <c r="A32" s="1">
         <v>42913</v>
       </c>
-      <c r="B32" s="3" t="s">
+      <c r="B32" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="C32" s="8">
+      <c r="C32" s="7">
         <v>600</v>
       </c>
-      <c r="D32" s="9"/>
+      <c r="D32" s="8"/>
     </row>
     <row r="33" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="2"/>
-      <c r="B33" s="3" t="s">
+      <c r="A33" s="1"/>
+      <c r="B33" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C33" s="9"/>
-      <c r="D33" s="8">
+      <c r="C33" s="8"/>
+      <c r="D33" s="7">
         <v>600</v>
       </c>
     </row>
     <row r="34" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="2">
+      <c r="A34" s="1">
         <v>42915</v>
       </c>
-      <c r="B34" s="3" t="s">
+      <c r="B34" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="C34" s="8">
+      <c r="C34" s="7">
         <v>1600</v>
       </c>
-      <c r="D34" s="9"/>
+      <c r="D34" s="8"/>
     </row>
     <row r="35" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="2"/>
-      <c r="B35" s="3" t="s">
+      <c r="A35" s="1"/>
+      <c r="B35" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="C35" s="9"/>
-      <c r="D35" s="8">
+      <c r="C35" s="8"/>
+      <c r="D35" s="7">
         <v>1600</v>
       </c>
     </row>
     <row r="36" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="2">
+      <c r="A36" s="1">
         <v>42916</v>
       </c>
-      <c r="B36" s="3" t="s">
+      <c r="B36" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="C36" s="8">
+      <c r="C36" s="7">
         <v>700</v>
       </c>
-      <c r="D36" s="9"/>
+      <c r="D36" s="8"/>
     </row>
     <row r="37" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A37" s="2"/>
-      <c r="B37" s="3" t="s">
+      <c r="A37" s="1"/>
+      <c r="B37" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C37" s="9"/>
-      <c r="D37" s="8">
+      <c r="C37" s="8"/>
+      <c r="D37" s="7">
         <v>700</v>
       </c>
     </row>
     <row r="38" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A38" s="2"/>
-      <c r="B38" s="3"/>
-      <c r="C38" s="10"/>
-      <c r="D38" s="11"/>
+      <c r="A38" s="1"/>
+      <c r="B38" s="2"/>
+      <c r="C38" s="9"/>
+      <c r="D38" s="9"/>
     </row>
     <row r="39" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A39" s="2">
+      <c r="A39" s="1">
         <v>42916</v>
       </c>
-      <c r="B39" s="3"/>
-      <c r="C39" s="8"/>
-      <c r="D39" s="9"/>
+      <c r="B39" s="2"/>
+      <c r="C39" s="7"/>
+      <c r="D39" s="8"/>
     </row>
     <row r="40" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A40" s="2" t="s">
+      <c r="A40" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B40" s="3"/>
-      <c r="C40" s="8"/>
-      <c r="D40" s="9"/>
+      <c r="B40" s="2"/>
+      <c r="C40" s="7"/>
+      <c r="D40" s="8"/>
     </row>
     <row r="41" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A41" s="2" t="s">
+      <c r="A41" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B41" s="3"/>
-      <c r="C41" s="8"/>
-      <c r="D41" s="9"/>
+      <c r="B41" s="2"/>
+      <c r="C41" s="7"/>
+      <c r="D41" s="8"/>
     </row>
     <row r="42" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A42" s="2" t="s">
+      <c r="A42" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B42" s="3"/>
-      <c r="C42" s="8"/>
-      <c r="D42" s="9"/>
+      <c r="B42" s="2"/>
+      <c r="C42" s="7"/>
+      <c r="D42" s="8"/>
     </row>
     <row r="43" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A43" s="2" t="s">
+      <c r="A43" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B43" s="3"/>
-      <c r="C43" s="8"/>
-      <c r="D43" s="9"/>
+      <c r="B43" s="2"/>
+      <c r="C43" s="7"/>
+      <c r="D43" s="8"/>
     </row>
     <row r="44" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A44" s="2" t="s">
+      <c r="A44" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B44" s="3"/>
-      <c r="C44" s="8"/>
-      <c r="D44" s="9"/>
+      <c r="B44" s="2"/>
+      <c r="C44" s="7"/>
+      <c r="D44" s="8"/>
     </row>
     <row r="45" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A45" s="2" t="s">
+      <c r="A45" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B45" s="3"/>
-      <c r="C45" s="8"/>
-      <c r="D45" s="9"/>
+      <c r="B45" s="2"/>
+      <c r="C45" s="7"/>
+      <c r="D45" s="8"/>
     </row>
     <row r="46" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A46" s="2" t="s">
+      <c r="A46" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B46" s="3"/>
-      <c r="C46" s="8"/>
-      <c r="D46" s="9"/>
+      <c r="B46" s="2"/>
+      <c r="C46" s="7"/>
+      <c r="D46" s="8"/>
     </row>
     <row r="47" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A47" s="2" t="s">
+      <c r="A47" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B47" s="3"/>
-      <c r="C47" s="9"/>
-      <c r="D47" s="9"/>
+      <c r="B47" s="2"/>
+      <c r="C47" s="8"/>
+      <c r="D47" s="8"/>
     </row>
     <row r="48" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A48" s="2"/>
-      <c r="B48" s="3"/>
-      <c r="C48" s="8"/>
-      <c r="D48" s="9"/>
+      <c r="A48" s="1"/>
+      <c r="B48" s="2"/>
+      <c r="C48" s="7"/>
+      <c r="D48" s="8"/>
     </row>
     <row r="49" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A49" s="2"/>
-      <c r="B49" s="3"/>
-      <c r="C49" s="9"/>
-      <c r="D49" s="9"/>
+      <c r="A49" s="1"/>
+      <c r="B49" s="2"/>
+      <c r="C49" s="8"/>
+      <c r="D49" s="8"/>
     </row>
     <row r="50" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A50" s="2" t="s">
+      <c r="A50" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B50" s="3"/>
-      <c r="C50" s="8"/>
-      <c r="D50" s="9"/>
+      <c r="B50" s="2"/>
+      <c r="C50" s="7"/>
+      <c r="D50" s="8"/>
     </row>
     <row r="51" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A51" s="2"/>
-      <c r="B51" s="3"/>
-      <c r="C51" s="8"/>
-      <c r="D51" s="9"/>
+      <c r="A51" s="1"/>
+      <c r="B51" s="2"/>
+      <c r="C51" s="7"/>
+      <c r="D51" s="8"/>
     </row>
     <row r="52" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A52" s="2"/>
-      <c r="B52" s="3"/>
-      <c r="C52" s="9"/>
-      <c r="D52" s="8"/>
-    </row>
-    <row r="53" spans="1:4" ht="9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A53" s="1"/>
-      <c r="B53" s="1"/>
-      <c r="C53" s="1"/>
-      <c r="D53" s="1"/>
-    </row>
-    <row r="54" spans="1:4" ht="9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A54" s="1"/>
-      <c r="B54" s="1"/>
-      <c r="C54" s="1"/>
-      <c r="D54" s="1"/>
+      <c r="A52" s="1"/>
+      <c r="B52" s="2"/>
+      <c r="C52" s="8"/>
+      <c r="D52" s="7"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/assets/public/Chapter_4_ComprehensiveProblem/documents/resources/Assessment_Questions/5.6_A_Student_Q_Sheet.xlsx
+++ b/assets/public/Chapter_4_ComprehensiveProblem/documents/resources/Assessment_Questions/5.6_A_Student_Q_Sheet.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\SakshiV\Dropbox\Accounting Courseware\Chapter_4_ComprehensiveProblem\documents\resources\Assessment_Questions\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3853E9D9-A00E-4022-BEAA-22C48B2E09A8}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CA0D4FC3-C87F-413D-842A-7F7C690132C3}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="11640" xr2:uid="{81281575-E507-449C-A7BA-DF4DE79AACCA}"/>
   </bookViews>
@@ -91,9 +91,8 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="2">
+  <numFmts count="1">
     <numFmt numFmtId="164" formatCode="m/d"/>
-    <numFmt numFmtId="165" formatCode="&quot;$&quot;#,##0"/>
   </numFmts>
   <fonts count="4" x14ac:knownFonts="1">
     <font>
@@ -118,10 +117,11 @@
     </font>
     <font>
       <b/>
-      <sz val="11"/>
+      <sz val="12"/>
       <color theme="1"/>
-      <name val="Arial"/>
+      <name val="Calibri"/>
       <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="4">
@@ -215,9 +215,6 @@
     <xf numFmtId="164" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" shrinkToFit="1"/>
-    </xf>
     <xf numFmtId="164" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -230,14 +227,17 @@
     <xf numFmtId="0" fontId="3" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="165" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="1" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="165" fontId="2" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="1" fontId="2" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="165" fontId="2" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="1" fontId="2" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1" shrinkToFit="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -559,10 +559,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DFC8DC52-957D-4FFB-BF6E-F6CAD4A7ADB5}">
-  <dimension ref="A1:D52"/>
+  <dimension ref="A1:D51"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -573,16 +573,16 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="4" t="s">
+      <c r="A1" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="B1" s="5" t="s">
+      <c r="B1" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="C1" s="5" t="s">
+      <c r="C1" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="D1" s="6" t="s">
+      <c r="D1" s="5" t="s">
         <v>17</v>
       </c>
     </row>
@@ -590,21 +590,21 @@
       <c r="A2" s="1">
         <v>42887</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="B2" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="C2" s="7">
+      <c r="C2" s="6">
         <v>10000</v>
       </c>
-      <c r="D2" s="8"/>
+      <c r="D2" s="7"/>
     </row>
     <row r="3" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="1"/>
-      <c r="B3" s="2" t="s">
+      <c r="B3" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="C3" s="8"/>
-      <c r="D3" s="7">
+      <c r="C3" s="7"/>
+      <c r="D3" s="6">
         <v>10000</v>
       </c>
     </row>
@@ -612,21 +612,21 @@
       <c r="A4" s="1">
         <v>42887</v>
       </c>
-      <c r="B4" s="2" t="s">
+      <c r="B4" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="C4" s="7">
+      <c r="C4" s="6">
         <v>50</v>
       </c>
-      <c r="D4" s="8"/>
+      <c r="D4" s="7"/>
     </row>
     <row r="5" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="1"/>
-      <c r="B5" s="2" t="s">
+      <c r="B5" s="9" t="s">
         <v>1</v>
       </c>
-      <c r="C5" s="8"/>
-      <c r="D5" s="7">
+      <c r="C5" s="7"/>
+      <c r="D5" s="6">
         <v>50</v>
       </c>
     </row>
@@ -634,21 +634,21 @@
       <c r="A6" s="1">
         <v>42888</v>
       </c>
-      <c r="B6" s="2" t="s">
+      <c r="B6" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="C6" s="7">
+      <c r="C6" s="6">
         <v>150</v>
       </c>
-      <c r="D6" s="8"/>
+      <c r="D6" s="7"/>
     </row>
     <row r="7" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="1"/>
-      <c r="B7" s="2" t="s">
+      <c r="B7" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="C7" s="8"/>
-      <c r="D7" s="7">
+      <c r="C7" s="7"/>
+      <c r="D7" s="6">
         <v>150</v>
       </c>
     </row>
@@ -656,21 +656,21 @@
       <c r="A8" s="1">
         <v>42891</v>
       </c>
-      <c r="B8" s="2" t="s">
+      <c r="B8" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="C8" s="7">
+      <c r="C8" s="6">
         <v>200</v>
       </c>
-      <c r="D8" s="8"/>
+      <c r="D8" s="7"/>
     </row>
     <row r="9" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="1"/>
-      <c r="B9" s="2" t="s">
+      <c r="B9" s="9" t="s">
         <v>3</v>
       </c>
-      <c r="C9" s="8"/>
-      <c r="D9" s="7">
+      <c r="C9" s="7"/>
+      <c r="D9" s="6">
         <v>200</v>
       </c>
     </row>
@@ -678,21 +678,21 @@
       <c r="A10" s="1">
         <v>42892</v>
       </c>
-      <c r="B10" s="2" t="s">
+      <c r="B10" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="C10" s="7">
+      <c r="C10" s="6">
         <v>250</v>
       </c>
-      <c r="D10" s="8"/>
+      <c r="D10" s="7"/>
     </row>
     <row r="11" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="1"/>
-      <c r="B11" s="2" t="s">
+      <c r="B11" s="9" t="s">
         <v>3</v>
       </c>
-      <c r="C11" s="8"/>
-      <c r="D11" s="7">
+      <c r="C11" s="7"/>
+      <c r="D11" s="6">
         <v>250</v>
       </c>
     </row>
@@ -700,21 +700,21 @@
       <c r="A12" s="1">
         <v>42894</v>
       </c>
-      <c r="B12" s="2" t="s">
+      <c r="B12" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="C12" s="7">
+      <c r="C12" s="6">
         <v>150</v>
       </c>
-      <c r="D12" s="8"/>
+      <c r="D12" s="7"/>
     </row>
     <row r="13" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="1"/>
-      <c r="B13" s="2" t="s">
+      <c r="B13" s="9" t="s">
         <v>1</v>
       </c>
-      <c r="C13" s="8"/>
-      <c r="D13" s="7">
+      <c r="C13" s="7"/>
+      <c r="D13" s="6">
         <v>150</v>
       </c>
     </row>
@@ -722,21 +722,21 @@
       <c r="A14" s="1">
         <v>42895</v>
       </c>
-      <c r="B14" s="2" t="s">
+      <c r="B14" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="C14" s="7">
+      <c r="C14" s="6">
         <v>450</v>
       </c>
-      <c r="D14" s="8"/>
+      <c r="D14" s="7"/>
     </row>
     <row r="15" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="1"/>
-      <c r="B15" s="2" t="s">
+      <c r="B15" s="9" t="s">
         <v>3</v>
       </c>
-      <c r="C15" s="8"/>
-      <c r="D15" s="7">
+      <c r="C15" s="7"/>
+      <c r="D15" s="6">
         <v>450</v>
       </c>
     </row>
@@ -744,21 +744,21 @@
       <c r="A16" s="1">
         <v>42896</v>
       </c>
-      <c r="B16" s="2" t="s">
+      <c r="B16" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="C16" s="7">
+      <c r="C16" s="6">
         <v>40</v>
       </c>
-      <c r="D16" s="8"/>
+      <c r="D16" s="7"/>
     </row>
     <row r="17" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="1"/>
-      <c r="B17" s="2" t="s">
+      <c r="B17" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="C17" s="8"/>
-      <c r="D17" s="7">
+      <c r="C17" s="7"/>
+      <c r="D17" s="6">
         <v>40</v>
       </c>
     </row>
@@ -766,21 +766,21 @@
       <c r="A18" s="1">
         <v>42899</v>
       </c>
-      <c r="B18" s="2" t="s">
+      <c r="B18" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="C18" s="7">
+      <c r="C18" s="6">
         <v>600</v>
       </c>
-      <c r="D18" s="8"/>
+      <c r="D18" s="7"/>
     </row>
     <row r="19" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="1"/>
-      <c r="B19" s="2" t="s">
+      <c r="B19" s="9" t="s">
         <v>1</v>
       </c>
-      <c r="C19" s="8"/>
-      <c r="D19" s="7">
+      <c r="C19" s="7"/>
+      <c r="D19" s="6">
         <v>600</v>
       </c>
     </row>
@@ -788,43 +788,43 @@
       <c r="A20" s="1">
         <v>42902</v>
       </c>
-      <c r="B20" s="2" t="s">
+      <c r="B20" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="C20" s="7">
+      <c r="C20" s="6">
         <v>500</v>
       </c>
-      <c r="D20" s="8"/>
+      <c r="D20" s="7"/>
     </row>
     <row r="21" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="1"/>
-      <c r="B21" s="2" t="s">
+      <c r="B21" s="9" t="s">
         <v>3</v>
       </c>
-      <c r="C21" s="8"/>
-      <c r="D21" s="7">
+      <c r="C21" s="7"/>
+      <c r="D21" s="6">
         <v>500</v>
       </c>
     </row>
     <row r="22" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="3">
+      <c r="A22" s="2">
         <v>42903</v>
       </c>
-      <c r="B22" s="2" t="s">
+      <c r="B22" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="C22" s="7">
+      <c r="C22" s="6">
         <v>30</v>
       </c>
-      <c r="D22" s="8"/>
+      <c r="D22" s="7"/>
     </row>
     <row r="23" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="1"/>
-      <c r="B23" s="2" t="s">
+      <c r="B23" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="C23" s="8"/>
-      <c r="D23" s="7">
+      <c r="C23" s="7"/>
+      <c r="D23" s="6">
         <v>30</v>
       </c>
     </row>
@@ -832,21 +832,21 @@
       <c r="A24" s="1">
         <v>42906</v>
       </c>
-      <c r="B24" s="2" t="s">
+      <c r="B24" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="C24" s="7">
+      <c r="C24" s="6">
         <v>250</v>
       </c>
-      <c r="D24" s="8"/>
+      <c r="D24" s="7"/>
     </row>
     <row r="25" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="1"/>
-      <c r="B25" s="2" t="s">
+      <c r="B25" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="C25" s="8"/>
-      <c r="D25" s="7">
+      <c r="C25" s="7"/>
+      <c r="D25" s="6">
         <v>250</v>
       </c>
     </row>
@@ -854,21 +854,21 @@
       <c r="A26" s="1">
         <v>42907</v>
       </c>
-      <c r="B26" s="2" t="s">
+      <c r="B26" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="C26" s="7">
+      <c r="C26" s="6">
         <v>40</v>
       </c>
-      <c r="D26" s="8"/>
+      <c r="D26" s="7"/>
     </row>
     <row r="27" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="1"/>
-      <c r="B27" s="2" t="s">
+      <c r="B27" s="9" t="s">
         <v>1</v>
       </c>
-      <c r="C27" s="8"/>
-      <c r="D27" s="7">
+      <c r="C27" s="7"/>
+      <c r="D27" s="6">
         <v>40</v>
       </c>
     </row>
@@ -876,21 +876,21 @@
       <c r="A28" s="1">
         <v>42910</v>
       </c>
-      <c r="B28" s="2" t="s">
+      <c r="B28" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="C28" s="7">
+      <c r="C28" s="6">
         <v>750</v>
       </c>
-      <c r="D28" s="8"/>
+      <c r="D28" s="7"/>
     </row>
     <row r="29" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="1"/>
-      <c r="B29" s="2" t="s">
+      <c r="B29" s="9" t="s">
         <v>3</v>
       </c>
-      <c r="C29" s="8"/>
-      <c r="D29" s="7">
+      <c r="C29" s="7"/>
+      <c r="D29" s="6">
         <v>750</v>
       </c>
     </row>
@@ -898,21 +898,21 @@
       <c r="A30" s="1">
         <v>42911</v>
       </c>
-      <c r="B30" s="2" t="s">
+      <c r="B30" s="9" t="s">
         <v>6</v>
       </c>
-      <c r="C30" s="7">
+      <c r="C30" s="6">
         <v>175</v>
       </c>
-      <c r="D30" s="8"/>
+      <c r="D30" s="7"/>
     </row>
     <row r="31" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="1"/>
-      <c r="B31" s="2" t="s">
+      <c r="B31" s="9" t="s">
         <v>1</v>
       </c>
-      <c r="C31" s="8"/>
-      <c r="D31" s="7">
+      <c r="C31" s="7"/>
+      <c r="D31" s="6">
         <v>175</v>
       </c>
     </row>
@@ -920,21 +920,21 @@
       <c r="A32" s="1">
         <v>42913</v>
       </c>
-      <c r="B32" s="2" t="s">
+      <c r="B32" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="C32" s="7">
+      <c r="C32" s="6">
         <v>600</v>
       </c>
-      <c r="D32" s="8"/>
+      <c r="D32" s="7"/>
     </row>
     <row r="33" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="1"/>
-      <c r="B33" s="2" t="s">
+      <c r="B33" s="9" t="s">
         <v>1</v>
       </c>
-      <c r="C33" s="8"/>
-      <c r="D33" s="7">
+      <c r="C33" s="7"/>
+      <c r="D33" s="6">
         <v>600</v>
       </c>
     </row>
@@ -942,21 +942,21 @@
       <c r="A34" s="1">
         <v>42915</v>
       </c>
-      <c r="B34" s="2" t="s">
+      <c r="B34" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="C34" s="7">
+      <c r="C34" s="6">
         <v>1600</v>
       </c>
-      <c r="D34" s="8"/>
+      <c r="D34" s="7"/>
     </row>
     <row r="35" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="1"/>
-      <c r="B35" s="2" t="s">
+      <c r="B35" s="9" t="s">
         <v>3</v>
       </c>
-      <c r="C35" s="8"/>
-      <c r="D35" s="7">
+      <c r="C35" s="7"/>
+      <c r="D35" s="6">
         <v>1600</v>
       </c>
     </row>
@@ -964,133 +964,127 @@
       <c r="A36" s="1">
         <v>42916</v>
       </c>
-      <c r="B36" s="2" t="s">
+      <c r="B36" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="C36" s="7">
+      <c r="C36" s="6">
         <v>700</v>
       </c>
-      <c r="D36" s="8"/>
+      <c r="D36" s="7"/>
     </row>
     <row r="37" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A37" s="1"/>
-      <c r="B37" s="2" t="s">
+      <c r="B37" s="9" t="s">
         <v>1</v>
       </c>
-      <c r="C37" s="8"/>
-      <c r="D37" s="7">
+      <c r="C37" s="7"/>
+      <c r="D37" s="6">
         <v>700</v>
       </c>
     </row>
     <row r="38" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A38" s="1"/>
-      <c r="B38" s="2"/>
-      <c r="C38" s="9"/>
-      <c r="D38" s="9"/>
+      <c r="B38" s="9"/>
+      <c r="C38" s="8"/>
+      <c r="D38" s="8"/>
     </row>
     <row r="39" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A39" s="1">
         <v>42916</v>
       </c>
-      <c r="B39" s="2"/>
-      <c r="C39" s="7"/>
-      <c r="D39" s="8"/>
+      <c r="B39" s="9"/>
+      <c r="C39" s="6"/>
+      <c r="D39" s="7"/>
     </row>
     <row r="40" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A40" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B40" s="2"/>
-      <c r="C40" s="7"/>
-      <c r="D40" s="8"/>
+      <c r="B40" s="9"/>
+      <c r="C40" s="6"/>
+      <c r="D40" s="7"/>
     </row>
     <row r="41" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A41" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B41" s="2"/>
-      <c r="C41" s="7"/>
-      <c r="D41" s="8"/>
+      <c r="B41" s="9"/>
+      <c r="C41" s="6"/>
+      <c r="D41" s="7"/>
     </row>
     <row r="42" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A42" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B42" s="2"/>
-      <c r="C42" s="7"/>
-      <c r="D42" s="8"/>
+      <c r="B42" s="9"/>
+      <c r="C42" s="6"/>
+      <c r="D42" s="7"/>
     </row>
     <row r="43" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A43" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B43" s="2"/>
-      <c r="C43" s="7"/>
-      <c r="D43" s="8"/>
+      <c r="B43" s="9"/>
+      <c r="C43" s="6"/>
+      <c r="D43" s="7"/>
     </row>
     <row r="44" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A44" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B44" s="2"/>
-      <c r="C44" s="7"/>
-      <c r="D44" s="8"/>
+      <c r="B44" s="9"/>
+      <c r="C44" s="6"/>
+      <c r="D44" s="7"/>
     </row>
     <row r="45" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A45" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B45" s="2"/>
-      <c r="C45" s="7"/>
-      <c r="D45" s="8"/>
+      <c r="B45" s="9"/>
+      <c r="C45" s="6"/>
+      <c r="D45" s="7"/>
     </row>
     <row r="46" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A46" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B46" s="2"/>
-      <c r="C46" s="7"/>
-      <c r="D46" s="8"/>
+      <c r="B46" s="9"/>
+      <c r="C46" s="6"/>
+      <c r="D46" s="7"/>
     </row>
     <row r="47" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A47" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B47" s="2"/>
-      <c r="C47" s="8"/>
-      <c r="D47" s="8"/>
+      <c r="B47" s="9"/>
+      <c r="C47" s="7"/>
+      <c r="D47" s="7"/>
     </row>
     <row r="48" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A48" s="1"/>
-      <c r="B48" s="2"/>
-      <c r="C48" s="7"/>
-      <c r="D48" s="8"/>
+      <c r="B48" s="9"/>
+      <c r="C48" s="6"/>
+      <c r="D48" s="7"/>
     </row>
     <row r="49" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A49" s="1"/>
-      <c r="B49" s="2"/>
-      <c r="C49" s="8"/>
-      <c r="D49" s="8"/>
+      <c r="B49" s="9"/>
+      <c r="C49" s="7"/>
+      <c r="D49" s="7"/>
     </row>
     <row r="50" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A50" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B50" s="2"/>
-      <c r="C50" s="7"/>
-      <c r="D50" s="8"/>
+      <c r="B50" s="9"/>
+      <c r="C50" s="6"/>
+      <c r="D50" s="7"/>
     </row>
     <row r="51" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A51" s="1"/>
-      <c r="B51" s="2"/>
+      <c r="B51" s="9"/>
       <c r="C51" s="7"/>
-      <c r="D51" s="8"/>
-    </row>
-    <row r="52" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A52" s="1"/>
-      <c r="B52" s="2"/>
-      <c r="C52" s="8"/>
-      <c r="D52" s="7"/>
+      <c r="D51" s="6"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/assets/public/Chapter_4_ComprehensiveProblem/documents/resources/Assessment_Questions/5.6_A_Student_Q_Sheet.xlsx
+++ b/assets/public/Chapter_4_ComprehensiveProblem/documents/resources/Assessment_Questions/5.6_A_Student_Q_Sheet.xlsx
@@ -8,14 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\SakshiV\Dropbox\Accounting Courseware\Chapter_4_ComprehensiveProblem\documents\resources\Assessment_Questions\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CA0D4FC3-C87F-413D-842A-7F7C690132C3}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A7C47C9E-D1E4-49DD-9EA5-15B6CFD476D7}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="11640" xr2:uid="{81281575-E507-449C-A7BA-DF4DE79AACCA}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029" concurrentCalc="0"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -144,7 +144,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="5">
+  <borders count="4">
     <border>
       <left/>
       <right/>
@@ -168,49 +168,38 @@
       <diagonal/>
     </border>
     <border>
-      <left style="medium">
-        <color rgb="FFE1A16C"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFE1A16C"/>
-      </right>
-      <top style="medium">
-        <color rgb="FFE1A16C"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FFE1A16C"/>
       </left>
       <right style="thin">
         <color rgb="FFE1A16C"/>
       </right>
-      <top style="medium">
+      <top style="thin">
         <color rgb="FFE1A16C"/>
       </top>
-      <bottom/>
+      <bottom style="thin">
+        <color rgb="FFE1A16C"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
       <left style="thin">
-        <color rgb="FFE1A16C"/>
+        <color rgb="FFD9D9D9"/>
       </left>
-      <right style="medium">
-        <color rgb="FFE1A16C"/>
+      <right style="thin">
+        <color rgb="FFD9D9D9"/>
       </right>
-      <top style="medium">
-        <color rgb="FFE1A16C"/>
-      </top>
-      <bottom/>
+      <top/>
+      <bottom style="thin">
+        <color rgb="FFD9D9D9"/>
+      </bottom>
       <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" shrinkToFit="1"/>
@@ -218,26 +207,32 @@
     <xf numFmtId="164" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="2" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="2" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="2" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="2" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="2" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="2" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1" shrinkToFit="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -247,7 +242,9 @@
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <mruColors>
+      <color rgb="FFE1A16C"/>
       <color rgb="FFD9D9D9"/>
+      <color rgb="FF000000"/>
       <color rgb="FFFEF1E6"/>
     </mruColors>
   </colors>
@@ -559,10 +556,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DFC8DC52-957D-4FFB-BF6E-F6CAD4A7ADB5}">
-  <dimension ref="A1:D51"/>
+  <dimension ref="A1:D50"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -573,38 +570,38 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="3" t="s">
+      <c r="A1" s="11" t="s">
         <v>14</v>
       </c>
-      <c r="B1" s="4" t="s">
+      <c r="B1" s="11" t="s">
         <v>16</v>
       </c>
-      <c r="C1" s="4" t="s">
+      <c r="C1" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="D1" s="5" t="s">
+      <c r="D1" s="11" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="2" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="1">
+      <c r="A2" s="7">
         <v>42887</v>
       </c>
-      <c r="B2" s="9" t="s">
+      <c r="B2" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="C2" s="6">
+      <c r="C2" s="9">
         <v>10000</v>
       </c>
-      <c r="D2" s="7"/>
+      <c r="D2" s="10"/>
     </row>
     <row r="3" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="1"/>
-      <c r="B3" s="9" t="s">
+      <c r="B3" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="C3" s="7"/>
-      <c r="D3" s="6">
+      <c r="C3" s="5"/>
+      <c r="D3" s="4">
         <v>10000</v>
       </c>
     </row>
@@ -612,21 +609,21 @@
       <c r="A4" s="1">
         <v>42887</v>
       </c>
-      <c r="B4" s="9" t="s">
+      <c r="B4" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="C4" s="6">
+      <c r="C4" s="4">
         <v>50</v>
       </c>
-      <c r="D4" s="7"/>
+      <c r="D4" s="5"/>
     </row>
     <row r="5" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="1"/>
-      <c r="B5" s="9" t="s">
+      <c r="B5" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C5" s="7"/>
-      <c r="D5" s="6">
+      <c r="C5" s="5"/>
+      <c r="D5" s="4">
         <v>50</v>
       </c>
     </row>
@@ -634,21 +631,21 @@
       <c r="A6" s="1">
         <v>42888</v>
       </c>
-      <c r="B6" s="9" t="s">
+      <c r="B6" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="C6" s="6">
+      <c r="C6" s="4">
         <v>150</v>
       </c>
-      <c r="D6" s="7"/>
+      <c r="D6" s="5"/>
     </row>
     <row r="7" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="1"/>
-      <c r="B7" s="9" t="s">
+      <c r="B7" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="C7" s="7"/>
-      <c r="D7" s="6">
+      <c r="C7" s="5"/>
+      <c r="D7" s="4">
         <v>150</v>
       </c>
     </row>
@@ -656,21 +653,21 @@
       <c r="A8" s="1">
         <v>42891</v>
       </c>
-      <c r="B8" s="9" t="s">
+      <c r="B8" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="C8" s="6">
+      <c r="C8" s="4">
         <v>200</v>
       </c>
-      <c r="D8" s="7"/>
+      <c r="D8" s="5"/>
     </row>
     <row r="9" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="1"/>
-      <c r="B9" s="9" t="s">
+      <c r="B9" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="C9" s="7"/>
-      <c r="D9" s="6">
+      <c r="C9" s="5"/>
+      <c r="D9" s="4">
         <v>200</v>
       </c>
     </row>
@@ -678,21 +675,21 @@
       <c r="A10" s="1">
         <v>42892</v>
       </c>
-      <c r="B10" s="9" t="s">
+      <c r="B10" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="C10" s="6">
+      <c r="C10" s="4">
         <v>250</v>
       </c>
-      <c r="D10" s="7"/>
+      <c r="D10" s="5"/>
     </row>
     <row r="11" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="1"/>
-      <c r="B11" s="9" t="s">
+      <c r="B11" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="C11" s="7"/>
-      <c r="D11" s="6">
+      <c r="C11" s="5"/>
+      <c r="D11" s="4">
         <v>250</v>
       </c>
     </row>
@@ -700,21 +697,21 @@
       <c r="A12" s="1">
         <v>42894</v>
       </c>
-      <c r="B12" s="9" t="s">
+      <c r="B12" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="C12" s="6">
+      <c r="C12" s="4">
         <v>150</v>
       </c>
-      <c r="D12" s="7"/>
+      <c r="D12" s="5"/>
     </row>
     <row r="13" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="1"/>
-      <c r="B13" s="9" t="s">
+      <c r="B13" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C13" s="7"/>
-      <c r="D13" s="6">
+      <c r="C13" s="5"/>
+      <c r="D13" s="4">
         <v>150</v>
       </c>
     </row>
@@ -722,21 +719,21 @@
       <c r="A14" s="1">
         <v>42895</v>
       </c>
-      <c r="B14" s="9" t="s">
+      <c r="B14" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="C14" s="6">
+      <c r="C14" s="4">
         <v>450</v>
       </c>
-      <c r="D14" s="7"/>
+      <c r="D14" s="5"/>
     </row>
     <row r="15" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="1"/>
-      <c r="B15" s="9" t="s">
+      <c r="B15" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="C15" s="7"/>
-      <c r="D15" s="6">
+      <c r="C15" s="5"/>
+      <c r="D15" s="4">
         <v>450</v>
       </c>
     </row>
@@ -744,21 +741,21 @@
       <c r="A16" s="1">
         <v>42896</v>
       </c>
-      <c r="B16" s="9" t="s">
+      <c r="B16" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="C16" s="6">
+      <c r="C16" s="4">
         <v>40</v>
       </c>
-      <c r="D16" s="7"/>
+      <c r="D16" s="5"/>
     </row>
     <row r="17" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="1"/>
-      <c r="B17" s="9" t="s">
+      <c r="B17" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="C17" s="7"/>
-      <c r="D17" s="6">
+      <c r="C17" s="5"/>
+      <c r="D17" s="4">
         <v>40</v>
       </c>
     </row>
@@ -766,21 +763,21 @@
       <c r="A18" s="1">
         <v>42899</v>
       </c>
-      <c r="B18" s="9" t="s">
+      <c r="B18" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="C18" s="6">
+      <c r="C18" s="4">
         <v>600</v>
       </c>
-      <c r="D18" s="7"/>
+      <c r="D18" s="5"/>
     </row>
     <row r="19" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="1"/>
-      <c r="B19" s="9" t="s">
+      <c r="B19" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C19" s="7"/>
-      <c r="D19" s="6">
+      <c r="C19" s="5"/>
+      <c r="D19" s="4">
         <v>600</v>
       </c>
     </row>
@@ -788,21 +785,21 @@
       <c r="A20" s="1">
         <v>42902</v>
       </c>
-      <c r="B20" s="9" t="s">
+      <c r="B20" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="C20" s="6">
+      <c r="C20" s="4">
         <v>500</v>
       </c>
-      <c r="D20" s="7"/>
+      <c r="D20" s="5"/>
     </row>
     <row r="21" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="1"/>
-      <c r="B21" s="9" t="s">
+      <c r="B21" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="C21" s="7"/>
-      <c r="D21" s="6">
+      <c r="C21" s="5"/>
+      <c r="D21" s="4">
         <v>500</v>
       </c>
     </row>
@@ -810,21 +807,21 @@
       <c r="A22" s="2">
         <v>42903</v>
       </c>
-      <c r="B22" s="9" t="s">
+      <c r="B22" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="C22" s="6">
+      <c r="C22" s="4">
         <v>30</v>
       </c>
-      <c r="D22" s="7"/>
+      <c r="D22" s="5"/>
     </row>
     <row r="23" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="1"/>
-      <c r="B23" s="9" t="s">
+      <c r="B23" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="C23" s="7"/>
-      <c r="D23" s="6">
+      <c r="C23" s="5"/>
+      <c r="D23" s="4">
         <v>30</v>
       </c>
     </row>
@@ -832,21 +829,21 @@
       <c r="A24" s="1">
         <v>42906</v>
       </c>
-      <c r="B24" s="9" t="s">
+      <c r="B24" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="C24" s="6">
+      <c r="C24" s="4">
         <v>250</v>
       </c>
-      <c r="D24" s="7"/>
+      <c r="D24" s="5"/>
     </row>
     <row r="25" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="1"/>
-      <c r="B25" s="9" t="s">
+      <c r="B25" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="C25" s="7"/>
-      <c r="D25" s="6">
+      <c r="C25" s="5"/>
+      <c r="D25" s="4">
         <v>250</v>
       </c>
     </row>
@@ -854,21 +851,21 @@
       <c r="A26" s="1">
         <v>42907</v>
       </c>
-      <c r="B26" s="9" t="s">
+      <c r="B26" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="C26" s="6">
+      <c r="C26" s="4">
         <v>40</v>
       </c>
-      <c r="D26" s="7"/>
+      <c r="D26" s="5"/>
     </row>
     <row r="27" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="1"/>
-      <c r="B27" s="9" t="s">
+      <c r="B27" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C27" s="7"/>
-      <c r="D27" s="6">
+      <c r="C27" s="5"/>
+      <c r="D27" s="4">
         <v>40</v>
       </c>
     </row>
@@ -876,21 +873,21 @@
       <c r="A28" s="1">
         <v>42910</v>
       </c>
-      <c r="B28" s="9" t="s">
+      <c r="B28" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="C28" s="6">
+      <c r="C28" s="4">
         <v>750</v>
       </c>
-      <c r="D28" s="7"/>
+      <c r="D28" s="5"/>
     </row>
     <row r="29" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="1"/>
-      <c r="B29" s="9" t="s">
+      <c r="B29" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="C29" s="7"/>
-      <c r="D29" s="6">
+      <c r="C29" s="5"/>
+      <c r="D29" s="4">
         <v>750</v>
       </c>
     </row>
@@ -898,21 +895,21 @@
       <c r="A30" s="1">
         <v>42911</v>
       </c>
-      <c r="B30" s="9" t="s">
+      <c r="B30" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="C30" s="6">
+      <c r="C30" s="4">
         <v>175</v>
       </c>
-      <c r="D30" s="7"/>
+      <c r="D30" s="5"/>
     </row>
     <row r="31" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="1"/>
-      <c r="B31" s="9" t="s">
+      <c r="B31" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C31" s="7"/>
-      <c r="D31" s="6">
+      <c r="C31" s="5"/>
+      <c r="D31" s="4">
         <v>175</v>
       </c>
     </row>
@@ -920,21 +917,21 @@
       <c r="A32" s="1">
         <v>42913</v>
       </c>
-      <c r="B32" s="9" t="s">
+      <c r="B32" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="C32" s="6">
+      <c r="C32" s="4">
         <v>600</v>
       </c>
-      <c r="D32" s="7"/>
+      <c r="D32" s="5"/>
     </row>
     <row r="33" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="1"/>
-      <c r="B33" s="9" t="s">
+      <c r="B33" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C33" s="7"/>
-      <c r="D33" s="6">
+      <c r="C33" s="5"/>
+      <c r="D33" s="4">
         <v>600</v>
       </c>
     </row>
@@ -942,21 +939,21 @@
       <c r="A34" s="1">
         <v>42915</v>
       </c>
-      <c r="B34" s="9" t="s">
+      <c r="B34" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="C34" s="6">
+      <c r="C34" s="4">
         <v>1600</v>
       </c>
-      <c r="D34" s="7"/>
+      <c r="D34" s="5"/>
     </row>
     <row r="35" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="1"/>
-      <c r="B35" s="9" t="s">
+      <c r="B35" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="C35" s="7"/>
-      <c r="D35" s="6">
+      <c r="C35" s="5"/>
+      <c r="D35" s="4">
         <v>1600</v>
       </c>
     </row>
@@ -964,127 +961,121 @@
       <c r="A36" s="1">
         <v>42916</v>
       </c>
-      <c r="B36" s="9" t="s">
+      <c r="B36" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="C36" s="6">
+      <c r="C36" s="4">
         <v>700</v>
       </c>
-      <c r="D36" s="7"/>
+      <c r="D36" s="5"/>
     </row>
     <row r="37" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A37" s="1"/>
-      <c r="B37" s="9" t="s">
+      <c r="B37" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C37" s="7"/>
-      <c r="D37" s="6">
+      <c r="C37" s="5"/>
+      <c r="D37" s="4">
         <v>700</v>
       </c>
     </row>
     <row r="38" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A38" s="1"/>
-      <c r="B38" s="9"/>
-      <c r="C38" s="8"/>
-      <c r="D38" s="8"/>
+      <c r="B38" s="3"/>
+      <c r="C38" s="6"/>
+      <c r="D38" s="6"/>
     </row>
     <row r="39" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A39" s="1">
         <v>42916</v>
       </c>
-      <c r="B39" s="9"/>
-      <c r="C39" s="6"/>
-      <c r="D39" s="7"/>
+      <c r="B39" s="3"/>
+      <c r="C39" s="4"/>
+      <c r="D39" s="5"/>
     </row>
     <row r="40" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A40" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B40" s="9"/>
-      <c r="C40" s="6"/>
-      <c r="D40" s="7"/>
+      <c r="B40" s="3"/>
+      <c r="C40" s="4"/>
+      <c r="D40" s="5"/>
     </row>
     <row r="41" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A41" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B41" s="9"/>
-      <c r="C41" s="6"/>
-      <c r="D41" s="7"/>
+      <c r="B41" s="3"/>
+      <c r="C41" s="4"/>
+      <c r="D41" s="5"/>
     </row>
     <row r="42" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A42" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B42" s="9"/>
-      <c r="C42" s="6"/>
-      <c r="D42" s="7"/>
+      <c r="B42" s="3"/>
+      <c r="C42" s="4"/>
+      <c r="D42" s="5"/>
     </row>
     <row r="43" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A43" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B43" s="9"/>
-      <c r="C43" s="6"/>
-      <c r="D43" s="7"/>
+      <c r="B43" s="3"/>
+      <c r="C43" s="4"/>
+      <c r="D43" s="5"/>
     </row>
     <row r="44" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A44" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B44" s="9"/>
-      <c r="C44" s="6"/>
-      <c r="D44" s="7"/>
+      <c r="B44" s="3"/>
+      <c r="C44" s="4"/>
+      <c r="D44" s="5"/>
     </row>
     <row r="45" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A45" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B45" s="9"/>
-      <c r="C45" s="6"/>
-      <c r="D45" s="7"/>
+      <c r="B45" s="3"/>
+      <c r="C45" s="4"/>
+      <c r="D45" s="5"/>
     </row>
     <row r="46" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A46" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B46" s="9"/>
-      <c r="C46" s="6"/>
-      <c r="D46" s="7"/>
+      <c r="B46" s="3"/>
+      <c r="C46" s="4"/>
+      <c r="D46" s="5"/>
     </row>
     <row r="47" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A47" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B47" s="9"/>
-      <c r="C47" s="7"/>
-      <c r="D47" s="7"/>
+      <c r="B47" s="3"/>
+      <c r="C47" s="5"/>
+      <c r="D47" s="5"/>
     </row>
     <row r="48" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A48" s="1"/>
-      <c r="B48" s="9"/>
-      <c r="C48" s="6"/>
-      <c r="D48" s="7"/>
+      <c r="B48" s="3"/>
+      <c r="C48" s="4"/>
+      <c r="D48" s="5"/>
     </row>
     <row r="49" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A49" s="1"/>
-      <c r="B49" s="9"/>
-      <c r="C49" s="7"/>
-      <c r="D49" s="7"/>
+      <c r="B49" s="3"/>
+      <c r="C49" s="5"/>
+      <c r="D49" s="5"/>
     </row>
     <row r="50" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A50" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B50" s="9"/>
-      <c r="C50" s="6"/>
-      <c r="D50" s="7"/>
-    </row>
-    <row r="51" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A51" s="1"/>
-      <c r="B51" s="9"/>
-      <c r="C51" s="7"/>
-      <c r="D51" s="6"/>
+      <c r="B50" s="3"/>
+      <c r="C50" s="4"/>
+      <c r="D50" s="5"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/assets/public/Chapter_4_ComprehensiveProblem/documents/resources/Assessment_Questions/5.6_A_Student_Q_Sheet.xlsx
+++ b/assets/public/Chapter_4_ComprehensiveProblem/documents/resources/Assessment_Questions/5.6_A_Student_Q_Sheet.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\SakshiV\Dropbox\Accounting Courseware\Chapter_4_ComprehensiveProblem\documents\resources\Assessment_Questions\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A7C47C9E-D1E4-49DD-9EA5-15B6CFD476D7}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E6199CFF-42A0-4E74-92E4-89D77650E2DD}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="11640" xr2:uid="{81281575-E507-449C-A7BA-DF4DE79AACCA}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="35">
   <si>
     <t xml:space="preserve"> </t>
   </si>
@@ -85,15 +85,63 @@
   </si>
   <si>
     <t>Credit</t>
+  </si>
+  <si>
+    <t>6/1</t>
+  </si>
+  <si>
+    <t>6/2</t>
+  </si>
+  <si>
+    <t>6/5</t>
+  </si>
+  <si>
+    <t>6/6</t>
+  </si>
+  <si>
+    <t>6/8</t>
+  </si>
+  <si>
+    <t>6/9</t>
+  </si>
+  <si>
+    <t>6/10</t>
+  </si>
+  <si>
+    <t>6/13</t>
+  </si>
+  <si>
+    <t>6/16</t>
+  </si>
+  <si>
+    <t>6/17</t>
+  </si>
+  <si>
+    <t>6/20</t>
+  </si>
+  <si>
+    <t>6/21</t>
+  </si>
+  <si>
+    <t>6/24</t>
+  </si>
+  <si>
+    <t>6/25</t>
+  </si>
+  <si>
+    <t>6/27</t>
+  </si>
+  <si>
+    <t>6/29</t>
+  </si>
+  <si>
+    <t>6/30</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="m/d"/>
-  </numFmts>
   <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -199,14 +247,8 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1" shrinkToFit="1"/>
     </xf>
@@ -219,9 +261,6 @@
     <xf numFmtId="3" fontId="2" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" shrinkToFit="1"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1" shrinkToFit="1"/>
     </xf>
@@ -233,6 +272,12 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -570,512 +615,512 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="11" t="s">
+      <c r="A1" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="B1" s="11" t="s">
+      <c r="B1" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="C1" s="11" t="s">
+      <c r="C1" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="D1" s="11" t="s">
+      <c r="D1" s="8" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="2" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="7">
-        <v>42887</v>
-      </c>
-      <c r="B2" s="8" t="s">
+      <c r="A2" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="B2" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="C2" s="9">
+      <c r="C2" s="6">
         <v>10000</v>
       </c>
-      <c r="D2" s="10"/>
+      <c r="D2" s="7"/>
     </row>
     <row r="3" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="1"/>
-      <c r="B3" s="3" t="s">
+      <c r="A3" s="10"/>
+      <c r="B3" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="C3" s="5"/>
-      <c r="D3" s="4">
+      <c r="C3" s="3"/>
+      <c r="D3" s="2">
         <v>10000</v>
       </c>
     </row>
     <row r="4" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="1">
-        <v>42887</v>
-      </c>
-      <c r="B4" s="3" t="s">
+      <c r="A4" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="B4" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="C4" s="4">
+      <c r="C4" s="2">
         <v>50</v>
       </c>
-      <c r="D4" s="5"/>
+      <c r="D4" s="3"/>
     </row>
     <row r="5" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="1"/>
-      <c r="B5" s="3" t="s">
+      <c r="A5" s="10"/>
+      <c r="B5" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C5" s="5"/>
-      <c r="D5" s="4">
+      <c r="C5" s="3"/>
+      <c r="D5" s="2">
         <v>50</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="1">
-        <v>42888</v>
-      </c>
-      <c r="B6" s="3" t="s">
+      <c r="A6" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="B6" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="C6" s="4">
+      <c r="C6" s="2">
         <v>150</v>
       </c>
-      <c r="D6" s="5"/>
+      <c r="D6" s="3"/>
     </row>
     <row r="7" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="1"/>
-      <c r="B7" s="3" t="s">
+      <c r="A7" s="10"/>
+      <c r="B7" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="C7" s="5"/>
-      <c r="D7" s="4">
+      <c r="C7" s="3"/>
+      <c r="D7" s="2">
         <v>150</v>
       </c>
     </row>
     <row r="8" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="1">
-        <v>42891</v>
-      </c>
-      <c r="B8" s="3" t="s">
+      <c r="A8" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="B8" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="C8" s="4">
+      <c r="C8" s="2">
         <v>200</v>
       </c>
-      <c r="D8" s="5"/>
+      <c r="D8" s="3"/>
     </row>
     <row r="9" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="1"/>
-      <c r="B9" s="3" t="s">
+      <c r="A9" s="10"/>
+      <c r="B9" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="C9" s="5"/>
-      <c r="D9" s="4">
+      <c r="C9" s="3"/>
+      <c r="D9" s="2">
         <v>200</v>
       </c>
     </row>
     <row r="10" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="1">
-        <v>42892</v>
-      </c>
-      <c r="B10" s="3" t="s">
+      <c r="A10" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="B10" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="C10" s="4">
+      <c r="C10" s="2">
         <v>250</v>
       </c>
-      <c r="D10" s="5"/>
+      <c r="D10" s="3"/>
     </row>
     <row r="11" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="1"/>
-      <c r="B11" s="3" t="s">
+      <c r="A11" s="10"/>
+      <c r="B11" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="C11" s="5"/>
-      <c r="D11" s="4">
+      <c r="C11" s="3"/>
+      <c r="D11" s="2">
         <v>250</v>
       </c>
     </row>
     <row r="12" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="1">
-        <v>42894</v>
-      </c>
-      <c r="B12" s="3" t="s">
+      <c r="A12" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="B12" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="C12" s="4">
+      <c r="C12" s="2">
         <v>150</v>
       </c>
-      <c r="D12" s="5"/>
+      <c r="D12" s="3"/>
     </row>
     <row r="13" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="1"/>
-      <c r="B13" s="3" t="s">
+      <c r="A13" s="10"/>
+      <c r="B13" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C13" s="5"/>
-      <c r="D13" s="4">
+      <c r="C13" s="3"/>
+      <c r="D13" s="2">
         <v>150</v>
       </c>
     </row>
     <row r="14" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="1">
-        <v>42895</v>
-      </c>
-      <c r="B14" s="3" t="s">
+      <c r="A14" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="B14" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="C14" s="4">
+      <c r="C14" s="2">
         <v>450</v>
       </c>
-      <c r="D14" s="5"/>
+      <c r="D14" s="3"/>
     </row>
     <row r="15" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="1"/>
-      <c r="B15" s="3" t="s">
+      <c r="A15" s="10"/>
+      <c r="B15" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="C15" s="5"/>
-      <c r="D15" s="4">
+      <c r="C15" s="3"/>
+      <c r="D15" s="2">
         <v>450</v>
       </c>
     </row>
     <row r="16" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="1">
-        <v>42896</v>
-      </c>
-      <c r="B16" s="3" t="s">
+      <c r="A16" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="B16" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="C16" s="4">
+      <c r="C16" s="2">
         <v>40</v>
       </c>
-      <c r="D16" s="5"/>
+      <c r="D16" s="3"/>
     </row>
     <row r="17" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="1"/>
-      <c r="B17" s="3" t="s">
+      <c r="A17" s="10"/>
+      <c r="B17" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="C17" s="5"/>
-      <c r="D17" s="4">
+      <c r="C17" s="3"/>
+      <c r="D17" s="2">
         <v>40</v>
       </c>
     </row>
     <row r="18" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="1">
-        <v>42899</v>
-      </c>
-      <c r="B18" s="3" t="s">
+      <c r="A18" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="B18" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="C18" s="4">
+      <c r="C18" s="2">
         <v>600</v>
       </c>
-      <c r="D18" s="5"/>
+      <c r="D18" s="3"/>
     </row>
     <row r="19" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="1"/>
-      <c r="B19" s="3" t="s">
+      <c r="A19" s="10"/>
+      <c r="B19" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C19" s="5"/>
-      <c r="D19" s="4">
+      <c r="C19" s="3"/>
+      <c r="D19" s="2">
         <v>600</v>
       </c>
     </row>
     <row r="20" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="1">
-        <v>42902</v>
-      </c>
-      <c r="B20" s="3" t="s">
+      <c r="A20" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="B20" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="C20" s="4">
+      <c r="C20" s="2">
         <v>500</v>
       </c>
-      <c r="D20" s="5"/>
+      <c r="D20" s="3"/>
     </row>
     <row r="21" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="1"/>
-      <c r="B21" s="3" t="s">
+      <c r="A21" s="10"/>
+      <c r="B21" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="C21" s="5"/>
-      <c r="D21" s="4">
+      <c r="C21" s="3"/>
+      <c r="D21" s="2">
         <v>500</v>
       </c>
     </row>
     <row r="22" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="2">
-        <v>42903</v>
-      </c>
-      <c r="B22" s="3" t="s">
+      <c r="A22" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="B22" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="C22" s="4">
+      <c r="C22" s="2">
         <v>30</v>
       </c>
-      <c r="D22" s="5"/>
+      <c r="D22" s="3"/>
     </row>
     <row r="23" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="1"/>
-      <c r="B23" s="3" t="s">
+      <c r="A23" s="10"/>
+      <c r="B23" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="C23" s="5"/>
-      <c r="D23" s="4">
+      <c r="C23" s="3"/>
+      <c r="D23" s="2">
         <v>30</v>
       </c>
     </row>
     <row r="24" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="1">
-        <v>42906</v>
-      </c>
-      <c r="B24" s="3" t="s">
+      <c r="A24" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="B24" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="C24" s="4">
+      <c r="C24" s="2">
         <v>250</v>
       </c>
-      <c r="D24" s="5"/>
+      <c r="D24" s="3"/>
     </row>
     <row r="25" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="1"/>
-      <c r="B25" s="3" t="s">
+      <c r="A25" s="10"/>
+      <c r="B25" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="C25" s="5"/>
-      <c r="D25" s="4">
+      <c r="C25" s="3"/>
+      <c r="D25" s="2">
         <v>250</v>
       </c>
     </row>
     <row r="26" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="1">
-        <v>42907</v>
-      </c>
-      <c r="B26" s="3" t="s">
+      <c r="A26" s="9" t="s">
+        <v>29</v>
+      </c>
+      <c r="B26" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="C26" s="4">
+      <c r="C26" s="2">
         <v>40</v>
       </c>
-      <c r="D26" s="5"/>
+      <c r="D26" s="3"/>
     </row>
     <row r="27" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="1"/>
-      <c r="B27" s="3" t="s">
+      <c r="A27" s="10"/>
+      <c r="B27" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C27" s="5"/>
-      <c r="D27" s="4">
+      <c r="C27" s="3"/>
+      <c r="D27" s="2">
         <v>40</v>
       </c>
     </row>
     <row r="28" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="1">
-        <v>42910</v>
-      </c>
-      <c r="B28" s="3" t="s">
+      <c r="A28" s="9" t="s">
+        <v>30</v>
+      </c>
+      <c r="B28" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="C28" s="4">
+      <c r="C28" s="2">
         <v>750</v>
       </c>
-      <c r="D28" s="5"/>
+      <c r="D28" s="3"/>
     </row>
     <row r="29" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="1"/>
-      <c r="B29" s="3" t="s">
+      <c r="A29" s="10"/>
+      <c r="B29" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="C29" s="5"/>
-      <c r="D29" s="4">
+      <c r="C29" s="3"/>
+      <c r="D29" s="2">
         <v>750</v>
       </c>
     </row>
     <row r="30" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="1">
-        <v>42911</v>
-      </c>
-      <c r="B30" s="3" t="s">
+      <c r="A30" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="B30" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="C30" s="4">
+      <c r="C30" s="2">
         <v>175</v>
       </c>
-      <c r="D30" s="5"/>
+      <c r="D30" s="3"/>
     </row>
     <row r="31" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="1"/>
-      <c r="B31" s="3" t="s">
+      <c r="A31" s="10"/>
+      <c r="B31" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C31" s="5"/>
-      <c r="D31" s="4">
+      <c r="C31" s="3"/>
+      <c r="D31" s="2">
         <v>175</v>
       </c>
     </row>
     <row r="32" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="1">
-        <v>42913</v>
-      </c>
-      <c r="B32" s="3" t="s">
+      <c r="A32" s="9" t="s">
+        <v>32</v>
+      </c>
+      <c r="B32" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="C32" s="4">
+      <c r="C32" s="2">
         <v>600</v>
       </c>
-      <c r="D32" s="5"/>
+      <c r="D32" s="3"/>
     </row>
     <row r="33" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="1"/>
-      <c r="B33" s="3" t="s">
+      <c r="A33" s="10"/>
+      <c r="B33" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C33" s="5"/>
-      <c r="D33" s="4">
+      <c r="C33" s="3"/>
+      <c r="D33" s="2">
         <v>600</v>
       </c>
     </row>
     <row r="34" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="1">
-        <v>42915</v>
-      </c>
-      <c r="B34" s="3" t="s">
+      <c r="A34" s="9" t="s">
+        <v>33</v>
+      </c>
+      <c r="B34" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="C34" s="4">
+      <c r="C34" s="2">
         <v>1600</v>
       </c>
-      <c r="D34" s="5"/>
+      <c r="D34" s="3"/>
     </row>
     <row r="35" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="1"/>
-      <c r="B35" s="3" t="s">
+      <c r="A35" s="10"/>
+      <c r="B35" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="C35" s="5"/>
-      <c r="D35" s="4">
+      <c r="C35" s="3"/>
+      <c r="D35" s="2">
         <v>1600</v>
       </c>
     </row>
     <row r="36" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="1">
-        <v>42916</v>
-      </c>
-      <c r="B36" s="3" t="s">
+      <c r="A36" s="9" t="s">
+        <v>34</v>
+      </c>
+      <c r="B36" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="C36" s="4">
+      <c r="C36" s="2">
         <v>700</v>
       </c>
-      <c r="D36" s="5"/>
+      <c r="D36" s="3"/>
     </row>
     <row r="37" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A37" s="1"/>
-      <c r="B37" s="3" t="s">
+      <c r="A37" s="10"/>
+      <c r="B37" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C37" s="5"/>
-      <c r="D37" s="4">
+      <c r="C37" s="3"/>
+      <c r="D37" s="2">
         <v>700</v>
       </c>
     </row>
     <row r="38" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A38" s="1"/>
-      <c r="B38" s="3"/>
-      <c r="C38" s="6"/>
-      <c r="D38" s="6"/>
+      <c r="A38" s="10"/>
+      <c r="B38" s="1"/>
+      <c r="C38" s="4"/>
+      <c r="D38" s="4"/>
     </row>
     <row r="39" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A39" s="1">
-        <v>42916</v>
-      </c>
-      <c r="B39" s="3"/>
-      <c r="C39" s="4"/>
-      <c r="D39" s="5"/>
+      <c r="A39" s="9" t="s">
+        <v>34</v>
+      </c>
+      <c r="B39" s="1"/>
+      <c r="C39" s="2"/>
+      <c r="D39" s="3"/>
     </row>
     <row r="40" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A40" s="1" t="s">
+      <c r="A40" s="10" t="s">
         <v>0</v>
       </c>
-      <c r="B40" s="3"/>
-      <c r="C40" s="4"/>
-      <c r="D40" s="5"/>
+      <c r="B40" s="1"/>
+      <c r="C40" s="2"/>
+      <c r="D40" s="3"/>
     </row>
     <row r="41" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A41" s="1" t="s">
+      <c r="A41" s="10" t="s">
         <v>0</v>
       </c>
-      <c r="B41" s="3"/>
-      <c r="C41" s="4"/>
-      <c r="D41" s="5"/>
+      <c r="B41" s="1"/>
+      <c r="C41" s="2"/>
+      <c r="D41" s="3"/>
     </row>
     <row r="42" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A42" s="1" t="s">
+      <c r="A42" s="10" t="s">
         <v>0</v>
       </c>
-      <c r="B42" s="3"/>
-      <c r="C42" s="4"/>
-      <c r="D42" s="5"/>
+      <c r="B42" s="1"/>
+      <c r="C42" s="2"/>
+      <c r="D42" s="3"/>
     </row>
     <row r="43" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A43" s="1" t="s">
+      <c r="A43" s="10" t="s">
         <v>0</v>
       </c>
-      <c r="B43" s="3"/>
-      <c r="C43" s="4"/>
-      <c r="D43" s="5"/>
+      <c r="B43" s="1"/>
+      <c r="C43" s="2"/>
+      <c r="D43" s="3"/>
     </row>
     <row r="44" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A44" s="1" t="s">
+      <c r="A44" s="10" t="s">
         <v>0</v>
       </c>
-      <c r="B44" s="3"/>
-      <c r="C44" s="4"/>
-      <c r="D44" s="5"/>
+      <c r="B44" s="1"/>
+      <c r="C44" s="2"/>
+      <c r="D44" s="3"/>
     </row>
     <row r="45" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A45" s="1" t="s">
+      <c r="A45" s="10" t="s">
         <v>0</v>
       </c>
-      <c r="B45" s="3"/>
-      <c r="C45" s="4"/>
-      <c r="D45" s="5"/>
+      <c r="B45" s="1"/>
+      <c r="C45" s="2"/>
+      <c r="D45" s="3"/>
     </row>
     <row r="46" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A46" s="1" t="s">
+      <c r="A46" s="10" t="s">
         <v>0</v>
       </c>
-      <c r="B46" s="3"/>
-      <c r="C46" s="4"/>
-      <c r="D46" s="5"/>
+      <c r="B46" s="1"/>
+      <c r="C46" s="2"/>
+      <c r="D46" s="3"/>
     </row>
     <row r="47" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A47" s="1" t="s">
+      <c r="A47" s="10" t="s">
         <v>0</v>
       </c>
-      <c r="B47" s="3"/>
-      <c r="C47" s="5"/>
-      <c r="D47" s="5"/>
+      <c r="B47" s="1"/>
+      <c r="C47" s="3"/>
+      <c r="D47" s="3"/>
     </row>
     <row r="48" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A48" s="1"/>
-      <c r="B48" s="3"/>
-      <c r="C48" s="4"/>
-      <c r="D48" s="5"/>
+      <c r="A48" s="10"/>
+      <c r="B48" s="1"/>
+      <c r="C48" s="2"/>
+      <c r="D48" s="3"/>
     </row>
     <row r="49" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A49" s="1"/>
-      <c r="B49" s="3"/>
-      <c r="C49" s="5"/>
-      <c r="D49" s="5"/>
+      <c r="A49" s="10"/>
+      <c r="B49" s="1"/>
+      <c r="C49" s="3"/>
+      <c r="D49" s="3"/>
     </row>
     <row r="50" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A50" s="1" t="s">
+      <c r="A50" s="10" t="s">
         <v>0</v>
       </c>
-      <c r="B50" s="3"/>
-      <c r="C50" s="4"/>
-      <c r="D50" s="5"/>
+      <c r="B50" s="1"/>
+      <c r="C50" s="2"/>
+      <c r="D50" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/assets/public/Chapter_4_ComprehensiveProblem/documents/resources/Assessment_Questions/5.6_A_Student_Q_Sheet.xlsx
+++ b/assets/public/Chapter_4_ComprehensiveProblem/documents/resources/Assessment_Questions/5.6_A_Student_Q_Sheet.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\SakshiV\Dropbox\Accounting Courseware\Chapter_4_ComprehensiveProblem\documents\resources\Assessment_Questions\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Urja\Dropbox\Accounting Courseware\Chapter_4_ComprehensiveProblem\documents\resources\Assessment_Questions\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E6199CFF-42A0-4E74-92E4-89D77650E2DD}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{08C828EB-A028-4A35-AECD-5478174D8C66}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="11640" xr2:uid="{81281575-E507-449C-A7BA-DF4DE79AACCA}"/>
   </bookViews>
@@ -247,7 +247,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1" shrinkToFit="1"/>
@@ -278,6 +278,18 @@
     </xf>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" indent="1" shrinkToFit="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="3" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="3" fontId="2" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+      <protection locked="0"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -603,8 +615,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DFC8DC52-957D-4FFB-BF6E-F6CAD4A7ADB5}">
   <dimension ref="A1:D50"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A25" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B39" sqref="B39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1034,95 +1046,96 @@
       <c r="A39" s="9" t="s">
         <v>34</v>
       </c>
-      <c r="B39" s="1"/>
-      <c r="C39" s="2"/>
-      <c r="D39" s="3"/>
+      <c r="B39" s="11"/>
+      <c r="C39" s="12"/>
+      <c r="D39" s="13"/>
     </row>
     <row r="40" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A40" s="10" t="s">
         <v>0</v>
       </c>
-      <c r="B40" s="1"/>
-      <c r="C40" s="2"/>
-      <c r="D40" s="3"/>
+      <c r="B40" s="11"/>
+      <c r="C40" s="12"/>
+      <c r="D40" s="13"/>
     </row>
     <row r="41" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A41" s="10" t="s">
         <v>0</v>
       </c>
-      <c r="B41" s="1"/>
-      <c r="C41" s="2"/>
-      <c r="D41" s="3"/>
+      <c r="B41" s="11"/>
+      <c r="C41" s="12"/>
+      <c r="D41" s="13"/>
     </row>
     <row r="42" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A42" s="10" t="s">
         <v>0</v>
       </c>
-      <c r="B42" s="1"/>
-      <c r="C42" s="2"/>
-      <c r="D42" s="3"/>
+      <c r="B42" s="11"/>
+      <c r="C42" s="12"/>
+      <c r="D42" s="13"/>
     </row>
     <row r="43" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A43" s="10" t="s">
         <v>0</v>
       </c>
-      <c r="B43" s="1"/>
-      <c r="C43" s="2"/>
-      <c r="D43" s="3"/>
+      <c r="B43" s="11"/>
+      <c r="C43" s="12"/>
+      <c r="D43" s="13"/>
     </row>
     <row r="44" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A44" s="10" t="s">
         <v>0</v>
       </c>
-      <c r="B44" s="1"/>
-      <c r="C44" s="2"/>
-      <c r="D44" s="3"/>
+      <c r="B44" s="11"/>
+      <c r="C44" s="12"/>
+      <c r="D44" s="13"/>
     </row>
     <row r="45" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A45" s="10" t="s">
         <v>0</v>
       </c>
-      <c r="B45" s="1"/>
-      <c r="C45" s="2"/>
-      <c r="D45" s="3"/>
+      <c r="B45" s="11"/>
+      <c r="C45" s="12"/>
+      <c r="D45" s="13"/>
     </row>
     <row r="46" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A46" s="10" t="s">
         <v>0</v>
       </c>
-      <c r="B46" s="1"/>
-      <c r="C46" s="2"/>
-      <c r="D46" s="3"/>
+      <c r="B46" s="11"/>
+      <c r="C46" s="12"/>
+      <c r="D46" s="13"/>
     </row>
     <row r="47" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A47" s="10" t="s">
         <v>0</v>
       </c>
-      <c r="B47" s="1"/>
-      <c r="C47" s="3"/>
-      <c r="D47" s="3"/>
+      <c r="B47" s="11"/>
+      <c r="C47" s="13"/>
+      <c r="D47" s="13"/>
     </row>
     <row r="48" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A48" s="10"/>
-      <c r="B48" s="1"/>
-      <c r="C48" s="2"/>
-      <c r="D48" s="3"/>
+      <c r="B48" s="11"/>
+      <c r="C48" s="12"/>
+      <c r="D48" s="13"/>
     </row>
     <row r="49" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A49" s="10"/>
-      <c r="B49" s="1"/>
-      <c r="C49" s="3"/>
-      <c r="D49" s="3"/>
+      <c r="B49" s="11"/>
+      <c r="C49" s="13"/>
+      <c r="D49" s="13"/>
     </row>
     <row r="50" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A50" s="10" t="s">
         <v>0</v>
       </c>
-      <c r="B50" s="1"/>
-      <c r="C50" s="2"/>
-      <c r="D50" s="3"/>
+      <c r="B50" s="11"/>
+      <c r="C50" s="12"/>
+      <c r="D50" s="13"/>
     </row>
   </sheetData>
+  <sheetProtection sheet="1" objects="1" scenarios="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
